--- a/public/preprocessing/@mohmahfudmd.xlsx
+++ b/public/preprocessing/@mohmahfudmd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17944</v>
+        <v>30248</v>
       </c>
       <c r="C2" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bicara santai bersama om why yg orangnya kocakgt part seru ngobrolin kasus tanah sampe korupsi bareng men</t>
+          <t>presiden jokowi tak setuju adanya amandemen lg bahkan pd mengatakan bhw kalau ada yg mendorongnya menjad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['bicara', 'santai', 'bersama', 'om', 'why', 'yg', 'orangnya', 'kocakgt', 'part', 'seru', 'ngobrolin', 'kasus', 'tanah', 'sampe', 'korupsi', 'bareng', 'men']</t>
+          <t>['presiden', 'jokowi', 'tak', 'setuju', 'adanya', 'amandemen', 'lg', 'bahkan', 'pd', 'mengatakan', 'bhw', 'kalau', 'ada', 'yg', 'mendorongnya', 'menjad']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['presiden', 'jokowi', 'tak', 'setuju', 'adanya', 'amandemen', 'lagi', 'bahkan', 'pada', 'mengatakan', 'bahwa', 'kalau', 'ada', 'yang', 'mendorongnya', 'menjad']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['bicara', 'santai', 'om', 'why', 'orangnya', 'kocakgt', 'part', 'seru', 'ngobrolin', 'tanah', 'sampe', 'korupsi', 'bareng', 'men']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['bicara', 'santai', 'om', 'why', 'orang', 'kocakgt', 'part', 'seru', 'ngobrolin', 'tanah', 'sampe', 'korupsi', 'bareng', 'men']</t>
+          <t>['presiden', 'jokowi', 'setuju', 'amandemen', 'mendorongnya', 'menjad']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['presiden', 'jokowi', 'tuju', 'amandemen', 'dorong', 'menjad']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17945</v>
+        <v>30249</v>
       </c>
       <c r="C3" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ikut berdukacita atas wafatnya hj ellyda ibunda hr ini semoga husnul khatimah alangkah besar pengor</t>
+          <t>salah satu alasan penting mengapa kita dulu membubarkan orde baru dan melakukan reformasi adl krn jbtn presid</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['ikut', 'berdukacita', 'atas', 'wafatnya', 'hj', 'ellyda', 'ibunda', 'hr', 'ini', 'semoga', 'husnul', 'khatimah', 'alangkah', 'besar', 'pengor']</t>
+          <t>['salah', 'satu', 'alasan', 'penting', 'mengapa', 'kita', 'dulu', 'membubarkan', 'orde', 'baru', 'dan', 'melakukan', 'reformasi', 'adl', 'krn', 'jbtn', 'presid']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['salah', 'satu', 'alasan', 'penting', 'mengapa', 'kita', 'dulu', 'membubarkan', 'orde', 'baru', 'dan', 'melakukan', 'reformasi', 'adalah', 'karena', 'jbtn', 'presiden']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['berdukacita', 'wafatnya', 'hj', 'ellyda', 'ibunda', 'hr', 'semoga', 'husnul', 'khatimah', 'alangkah', 'pengor']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dukacita', 'wafat', 'hj', 'ellyda', 'ibunda', 'hr', 'moga', 'husnul', 'khatimah', 'alangkah', 'kor']</t>
+          <t>['salah', 'alasan', 'membubarkan', 'orde', 'reformasi', 'jbtn', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['salah', 'alas', 'bubar', 'orde', 'reformasi', 'jbtn', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17946</v>
+        <v>30250</v>
       </c>
       <c r="C4" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bersyukur dan ikhlas yakin usaha sampai kamis malam dpt hdr dlm acr puncak dies natalis himpunan maha</t>
+          <t>nonton live damor nya cesaria evora di youtube sambil membaca episodes tertentu dari kehidupan khalifah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['bersyukur', 'dan', 'ikhlas', 'yakin', 'usaha', 'sampai', 'kamis', 'malam', 'dpt', 'hdr', 'dlm', 'acr', 'puncak', 'dies', 'natalis', 'himpunan', 'maha']</t>
+          <t>['nonton', 'live', 'damor', 'nya', 'cesaria', 'evora', 'di', 'youtube', 'sambil', 'membaca', 'episodes', 'tertentu', 'dari', 'kehidupan', 'khalifah']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['menonton', 'live', 'damor', 'nya', 'cesaria', 'evora', 'di', 'youtube', 'sambil', 'membaca', 'episodes', 'tertentu', 'dari', 'kehidupan', 'khalifah']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['bersyukur', 'ikhlas', 'usaha', 'kamis', 'malam', 'dpt', 'hdr', 'dlm', 'acr', 'puncak', 'dies', 'natalis', 'himpunan', 'maha']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['syukur', 'ikhlas', 'usaha', 'kamis', 'malam', 'dpt', 'hdr', 'dlm', 'acr', 'puncak', 'dies', 'natalis', 'himpun', 'maha']</t>
+          <t>['menonton', 'live', 'damor', 'cesaria', 'evora', 'youtube', 'membaca', 'episodes', 'kehidupan', 'khalifah']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['tonton', 'live', 'damor', 'cesaria', 'evora', 'youtube', 'baca', 'episodes', 'hidup', 'khalifah']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17947</v>
+        <v>30251</v>
       </c>
       <c r="C5" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>farouk muhammad mantan kapolda ntb rektor ptik wakil ketua dpd telah wafat hari kamis pebruari almarh</t>
+          <t>sejak kecil sy selalu bersalawat dgn nasyid dilagukan tp yg ini diiringi musik di pesantren dulu kerjaan sa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['farouk', 'muhammad', 'mantan', 'kapolda', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dpd', 'telah', 'wafat', 'hari', 'kamis', 'pebruari', 'almarh']</t>
+          <t>['sejak', 'kecil', 'sy', 'selalu', 'bersalawat', 'dgn', 'nasyid', 'dilagukan', 'tp', 'yg', 'ini', 'diiringi', 'musik', 'di', 'pesantren', 'dulu', 'kerjaan', 'sa']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['sejak', 'kecil', 'saya', 'selalu', 'bersalawat', 'dengan', 'nasyid', 'dilagukan', 'tetapi', 'yang', 'ini', 'diiringi', 'musik', 'di', 'pesantren', 'dulu', 'pekerjaan', 'sa']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['farouk', 'muhammad', 'mantan', 'kapolda', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dpd', 'wafat', 'kamis', 'pebruari', 'almarh']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['farouk', 'muhammad', 'mantan', 'kapolda', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dpd', 'wafat', 'kamis', 'pebruari', 'almarh']</t>
+          <t>['bersalawat', 'nasyid', 'dilagukan', 'diiringi', 'musik', 'pesantren', 'pekerjaan', 'sa']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['bersalawat', 'nasyid', 'lagu', 'iring', 'musik', 'pesantren', 'kerja', 'sa']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17948</v>
+        <v>30252</v>
       </c>
       <c r="C6" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pemerintah akan mendiskusikan inisiatif utk merevisi uu ite dulu pd bnyk yg usul dgn penuh semangat agar</t>
+          <t>selamat merefleksi isra miraj isra miraj membawa perintah ibadah shalat mari hayati shalat kita baik saat sdn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pemerintah', 'akan', 'mendiskusikan', 'inisiatif', 'utk', 'merevisi', 'uu', 'ite', 'dulu', 'pd', 'bnyk', 'yg', 'usul', 'dgn', 'penuh', 'semangat', 'agar']</t>
+          <t>['selamat', 'merefleksi', 'isra', 'miraj', 'isra', 'miraj', 'membawa', 'perintah', 'ibadah', 'shalat', 'mari', 'hayati', 'shalat', 'kita', 'baik', 'saat', 'sdn']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['selamat', 'merefleksi', 'isra', 'miraj', 'isra', 'miraj', 'membawa', 'perintah', 'ibadah', 'salat', 'mari', 'hayati', 'salat', 'kita', 'baik', 'saat', 'sekolah, dasar, negeri']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mendiskusikan', 'inisiatif', 'merevisi', 'uu', 'ite', 'pd', 'bnyk', 'usul', 'penuh', 'semangat']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['perintah', 'diskusi', 'inisiatif', 'revisi', 'uu', 'ite', 'pd', 'bnyk', 'usul', 'penuh', 'semangat']</t>
+          <t>['selamat', 'merefleksi', 'isra', 'miraj', 'isra', 'miraj', 'membawa', 'perintah', 'ibadah', 'salat', 'mari', 'hayati', 'salat', 'sekolah, dasar, negeri']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['selamat', 'refleksi', 'isra', 'miraj', 'isra', 'miraj', 'bawa', 'perintah', 'ibadah', 'salat', 'mari', 'hayati', 'salat', 'sekolah dasar negeri']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17949</v>
+        <v>30253</v>
       </c>
       <c r="C7" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>apalagi baru ini juga keluarga pak jk melaporkan ferdinand hutahaian rusli kamri dan cawalkot makassar ke polisi</t>
+          <t>kasus klb pd baru akan jd masalah hukum jika hsl klb itu didaftarkan ke kemenkumham saat itu pemerintah akan mene</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['apalagi', 'baru', 'ini', 'juga', 'keluarga', 'pak', 'jk', 'melaporkan', 'ferdinand', 'hutahaian', 'rusli', 'kamri', 'dan', 'cawalkot', 'makassar', 'ke', 'polisi']</t>
+          <t>['kasus', 'klb', 'pd', 'baru', 'akan', 'jd', 'masalah', 'hukum', 'jika', 'hsl', 'klb', 'itu', 'didaftarkan', 'ke', 'kemenkumham', 'saat', 'itu', 'pemerintah', 'akan', 'mene']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kasus', 'klb', 'pada', 'baru', 'akan', 'jadi', 'masalah', 'hukum', 'jika', 'hasil', 'klb', 'itu', 'didaftarkan', 'ke', 'kemenkumham', 'saat', 'itu', 'pemerintah', 'akan', 'mene']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['keluarga', 'jk', 'melaporkan', 'ferdinand', 'hutahaian', 'rusli', 'kamri', 'cawalkot', 'makassar', 'polisi']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['keluarga', 'jk', 'lapor', 'ferdinand', 'hutahaian', 'rusli', 'kamri', 'cawalkot', 'makassar', 'polisi']</t>
+          <t>['klb', 'hukum', 'hasil', 'klb', 'didaftarkan', 'kemenkumham', 'pemerintah', 'mene']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['klb', 'hukum', 'hasil', 'klb', 'daftar', 'kemenkumham', 'perintah', 'mene']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17950</v>
+        <v>30254</v>
       </c>
       <c r="C8" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>jd pak jk tak bermaksud menuding zaman pemerintah skrng ini kalau mengritik dipanggil polisi tp itu terjadi sejak</t>
+          <t>jd sejak era bu mega pak sby sd pak jokowi ini pemerintah tdk pernah melarang klb atau munaslub yg dianggap sempa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['jd', 'pak', 'jk', 'tak', 'bermaksud', 'menuding', 'zaman', 'pemerintah', 'skrng', 'ini', 'kalau', 'mengritik', 'dipanggil', 'polisi', 'tp', 'itu', 'terjadi', 'sejak']</t>
+          <t>['jd', 'sejak', 'era', 'bu', 'mega', 'pak', 'sby', 'sd', 'pak', 'jokowi', 'ini', 'pemerintah', 'tdk', 'pernah', 'melarang', 'klb', 'atau', 'munaslub', 'yg', 'dianggap', 'sempa']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['jadi', 'sejak', 'era', 'bu', 'mega', 'pak', 'susilo, bambang, yudhoyono', 'sekolah, dasar', 'pak', 'jokowi', 'ini', 'pemerintah', 'tidak', 'pernah', 'melarang', 'klb', 'atau', 'musyawarah, luar, biasa', 'yang', 'dianggap', 'sempat']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['jk', 'menuding', 'zaman', 'pemerintah', 'skrng', 'mengritik', 'dipanggil', 'polisi', 'tp']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['jk', 'tuding', 'zaman', 'perintah', 'skrng', 'mengritik', 'panggil', 'polisi', 'tp']</t>
+          <t>['era', 'bu', 'mega', 'susilo, bambang, yudhoyono', 'sekolah, dasar', 'jokowi', 'pemerintah', 'melarang', 'klb', 'musyawarah, luar, biasa', 'dianggap']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['era', 'bu', 'mega', 'susilo bambang yudhoyono', 'sekolah dasar', 'jokowi', 'perintah', 'larang', 'klb', 'musyawarah luar biasa', 'anggap']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17951</v>
+        <v>30255</v>
       </c>
       <c r="C9" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">pertanyaan pak jk ttg bagaimana menyampaikan kritik agar tak dipanggil polisi hrs dipahami sbg pertanyaan biasa </t>
+          <t>bg pemerintah skrg ini peristiwa deli serdang merupakan mslh internal pd bukan minimal belum menjadi mslh hukum</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['pertanyaan', 'pak', 'jk', 'ttg', 'bagaimana', 'menyampaikan', 'kritik', 'agar', 'tak', 'dipanggil', 'polisi', 'hrs', 'dipahami', 'sbg', 'pertanyaan', 'biasa']</t>
+          <t>['bg', 'pemerintah', 'skrg', 'ini', 'peristiwa', 'deli', 'serdang', 'merupakan', 'mslh', 'internal', 'pd', 'bukan', 'minimal', 'belum', 'menjadi', 'mslh', 'hukum']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['bagi', 'pemerintah', 'sekarang', 'ini', 'peristiwa', 'deli', 'serdang', 'merupakan', 'masalah', 'internal', 'pada', 'bukan', 'minimal', 'belum', 'menjadi', 'masalah', 'hukum']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['jk', 'ttg', 'kritik', 'dipanggil', 'polisi', 'hrs', 'dipahami', 'sbg']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['jk', 'ttg', 'kritik', 'panggil', 'polisi', 'hrs', 'paham', 'sbg']</t>
+          <t>['pemerintah', 'peristiwa', 'deli', 'serdang', 'internal', 'minimal', 'hukum']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['perintah', 'peristiwa', 'deli', 'serdang', 'internal', 'minimal', 'hukum']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17952</v>
+        <v>30256</v>
       </c>
       <c r="C10" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>memang ada beberapa orang yg mengaku dari itb menyampaikan masalah din syamsuddin kpd menteri panrb pak tjahjo kum</t>
+          <t>saat itu bu mega tak melarang atau pun mendorong krn scr hukum hal itu masalah internal pkb sama jg dgn sikap peme</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['memang', 'ada', 'beberapa', 'orang', 'yg', 'mengaku', 'dari', 'itb', 'menyampaikan', 'masalah', 'din', 'syamsuddin', 'kpd', 'menteri', 'panrb', 'pak', 'tjahjo', 'kum']</t>
+          <t>['saat', 'itu', 'bu', 'mega', 'tak', 'melarang', 'atau', 'pun', 'mendorong', 'krn', 'scr', 'hukum', 'hal', 'itu', 'masalah', 'internal', 'pkb', 'sama', 'jg', 'dgn', 'sikap', 'peme']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['saat', 'itu', 'bu', 'mega', 'tak', 'melarang', 'atau', 'pun', 'mendorong', 'karena', 'secara', 'hukum', 'hal', 'itu', 'masalah', 'internal', 'partai, kebangkitan, bangsa', 'sama', 'juga', 'dengan', 'sikap', 'peme']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['orang', 'mengaku', 'itb', 'din', 'syamsuddin', 'kpd', 'menteri', 'panrb', 'tjahjo', 'kum']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['orang', 'aku', 'itb', 'din', 'syamsuddin', 'kpd', 'menteri', 'panrb', 'tjahjo', 'kum']</t>
+          <t>['bu', 'mega', 'melarang', 'mendorong', 'hukum', 'internal', 'partai, kebangkitan, bangsa', 'sikap', 'peme']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['bu', 'mega', 'larang', 'dorong', 'hukum', 'internal', 'partai bangkit bangsa', 'sikap', 'peme']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17953</v>
+        <v>30257</v>
       </c>
       <c r="C11" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>muhammadiyah dan nu kompak mengkampanyekan bhw nkri berdasar pancasila sejalan dgn islam nu menyebut darul mietsa</t>
+          <t>sesuai uu pemerintah tak bs melarang atau mendorong kegiatan yg mengatasnamakan kader partai demokrat di delis</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'dan', 'nu', 'kompak', 'mengkampanyekan', 'bhw', 'nkri', 'berdasar', 'pancasila', 'sejalan', 'dgn', 'islam', 'nu', 'menyebut', 'darul', 'mietsa']</t>
+          <t>['sesuai', 'uu', 'pemerintah', 'tak', 'bs', 'melarang', 'atau', 'mendorong', 'kegiatan', 'yg', 'mengatasnamakan', 'kader', 'partai', 'demokrat', 'di', 'delis']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sesuai', 'undang, undang', 'pemerintah', 'tak', 'bisa', 'melarang', 'atau', 'mendorong', 'kegiatan', 'yang', 'mengatasnamakan', 'kader', 'partai', 'demokrat', 'di', 'delis']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'nu', 'kompak', 'mengkampanyekan', 'bhw', 'nkri', 'berdasar', 'pancasila', 'sejalan', 'islam', 'nu', 'menyebut', 'darul', 'mietsa']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['muhammadiyah', 'nu', 'kompak', 'kampanye', 'bhw', 'nkri', 'dasar', 'pancasila', 'jalan', 'islam', 'nu', 'sebut', 'darul', 'mietsa']</t>
+          <t>['sesuai', 'undang, undang', 'pemerintah', 'melarang', 'mendorong', 'kegiatan', 'mengatasnamakan', 'kader', 'partai', 'demokrat', 'delis']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['sesuai', 'undang undang', 'perintah', 'larang', 'dorong', 'giat', 'mengatasnamakan', 'kader', 'partai', 'demokrat', 'delis']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17954</v>
+        <v>30258</v>
       </c>
       <c r="C12" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pemerintah tdk prnh menganggap din syamsuddin radikal atau penganut radikalisme pak din itu pengusung moderasi ber</t>
+          <t>ketika ada kritik ttg izin investasi miras utk daerah trtentu maka pemerintah mencabutnya jadi pemerintah tak ale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['pemerintah', 'tdk', 'prnh', 'menganggap', 'din', 'syamsuddin', 'radikal', 'atau', 'penganut', 'radikalisme', 'pak', 'din', 'itu', 'pengusung', 'moderasi', 'ber']</t>
+          <t>['ketika', 'ada', 'kritik', 'ttg', 'izin', 'investasi', 'miras', 'utk', 'daerah', 'trtentu', 'maka', 'pemerintah', 'mencabutnya', 'jadi', 'pemerintah', 'tak', 'ale']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['ketika', 'ada', 'kritik', 'tentang', 'izin', 'investasi', 'minuman, keras', 'untuk', 'daerah', 'tertentu', 'maka', 'pemerintah', 'mencabutnya', 'jadi', 'pemerintah', 'tak', 'ale']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['pemerintah', 'prnh', 'menganggap', 'din', 'syamsuddin', 'radikal', 'penganut', 'radikalisme', 'din', 'pengusung', 'moderasi', 'ber']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['perintah', 'prnh', 'anggap', 'din', 'syamsuddin', 'radikal', 'anut', 'radikalisme', 'din', 'usung', 'moderasi', 'ber']</t>
+          <t>['kritik', 'izin', 'investasi', 'minuman, keras', 'daerah', 'pemerintah', 'mencabutnya', 'pemerintah', 'ale']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['kritik', 'izin', 'investasi', 'minum keras', 'daerah', 'perintah', 'cabut', 'perintah', 'ale']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17955</v>
+        <v>30259</v>
       </c>
       <c r="C13" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">selamat tahun baru imlek yg ke yg lalu orang tiongkok sdh membangun tradisi syukuran saling memberi </t>
+          <t xml:space="preserve">semula vaksinasi akan digratiskan utk kls bawah dan berbayar utk kls trtntu ada yg kritik hrsnya gratis semua </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'imlek', 'yg', 'ke', 'yg', 'lalu', 'orang', 'tiongkok', 'sdh', 'membangun', 'tradisi', 'syukuran', 'saling', 'memberi']</t>
+          <t>['semula', 'vaksinasi', 'akan', 'digratiskan', 'utk', 'kls', 'bawah', 'dan', 'berbayar', 'utk', 'kls', 'trtntu', 'ada', 'yg', 'kritik', 'hrsnya', 'gratis', 'semua']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['semula', 'vaksinasi', 'akan', 'digratiskan', 'untuk', 'kelas', 'bawah', 'dan', 'berbayar', 'untuk', 'kelas', 'trtntu', 'ada', 'yang', 'kritik', 'seharusnya', 'gratis', 'semua']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'orang', 'tiongkok', 'membangun', 'tradisi', 'syukuran']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'orang', 'tiongkok', 'bangun', 'tradisi', 'syukur']</t>
+          <t>['vaksinasi', 'digratiskan', 'kelas', 'berbayar', 'kelas', 'trtntu', 'kritik', 'gratis']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['vaksinasi', 'gratis', 'kelas', 'bayar', 'kelas', 'trtntu', 'kritik', 'gratis']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17956</v>
+        <v>30260</v>
       </c>
       <c r="C14" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tiba merasa kangen dgn kehangatan berteman dgn almarhum syech ali jaber hr ini sy mendapat kiriman video salam ha</t>
+          <t>thn artidjo menjadi dosen sy di fhuii dia jg yg menginspirasi sy menjadi dosen dan menjadi aktivis penegakan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['tiba', 'merasa', 'kangen', 'dgn', 'kehangatan', 'berteman', 'dgn', 'almarhum', 'syech', 'ali', 'jaber', 'hr', 'ini', 'sy', 'mendapat', 'kiriman', 'video', 'salam', 'ha']</t>
+          <t>['thn', 'artidjo', 'menjadi', 'dosen', 'sy', 'di', 'fhuii', 'dia', 'jg', 'yg', 'menginspirasi', 'sy', 'menjadi', 'dosen', 'dan', 'menjadi', 'aktivis', 'penegakan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['tahun', 'artidjo', 'menjadi', 'dosen', 'saya', 'di', 'fhuii', 'dia', 'juga', 'yang', 'menginspirasi', 'saya', 'menjadi', 'dosen', 'dan', 'menjadi', 'aktivis', 'penegakan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['kangen', 'kehangatan', 'berteman', 'almarhum', 'syech', 'ali', 'jaber', 'hr', 'sy', 'kiriman', 'video', 'salam', 'ha']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['kangen', 'hangat', 'teman', 'almarhum', 'syech', 'ali', 'jaber', 'hr', 'sy', 'kirim', 'video', 'salam', 'ha']</t>
+          <t>['artidjo', 'dosen', 'fhuii', 'menginspirasi', 'dosen', 'aktivis', 'penegakan']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['artidjo', 'dosen', 'fhuii', 'inspirasi', 'dosen', 'aktivis', 'tega']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17957</v>
+        <v>30261</v>
       </c>
       <c r="C15" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>kita ada krn allah ditentukan kapan kembali kpd allah oleh allah jua inna lillah wa inna ilaihi rajiun ayahanda</t>
+          <t>artidjo alkostar adl hakim agung yg dijuluki algojo oleh para koruptor dia tak ragu menjatuhkan hukuman berat kpd</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['kita', 'ada', 'krn', 'allah', 'ditentukan', 'kapan', 'kembali', 'kpd', 'allah', 'oleh', 'allah', 'jua', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
+          <t>['artidjo', 'alkostar', 'adl', 'hakim', 'agung', 'yg', 'dijuluki', 'algojo', 'oleh', 'para', 'koruptor', 'dia', 'tak', 'ragu', 'menjatuhkan', 'hukuman', 'berat', 'kpd']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['artidjo', 'alkostar', 'adalah', 'hakim', 'agung', 'yang', 'dijuluki', 'algojo', 'oleh', 'para', 'koruptor', 'dia', 'tak', 'ragu', 'menjatuhkan', 'hukuman', 'berat', 'kepada']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['allah', 'ditentukan', 'kpd', 'allah', 'allah', 'jua', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['allah', 'tentu', 'kpd', 'allah', 'allah', 'jua', 'inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
+          <t>['artidjo', 'alkostar', 'hakim', 'agung', 'dijuluki', 'algojo', 'koruptor', 'ragu', 'menjatuhkan', 'hukuman', 'berat']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['artidjo', 'alkostar', 'hakim', 'agung', 'juluk', 'algojo', 'koruptor', 'ragu', 'jatuh', 'hukum', 'berat']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17958</v>
+        <v>30262</v>
       </c>
       <c r="C16" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>dua sahabat baik kh atabik ali ponpes krapyak yogya dan prof firmanzah guru besar ui dan univ paramadina waf</t>
+          <t xml:space="preserve">kita ditinggalkan lagi oleh seorang tokoh penegak hukum yg penuh integritras mantan hakim agung artidjo alkostar </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['dua', 'sahabat', 'baik', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'yogya', 'dan', 'prof', 'firmanzah', 'guru', 'besar', 'ui', 'dan', 'univ', 'paramadina', 'waf']</t>
+          <t>['kita', 'ditinggalkan', 'lagi', 'oleh', 'seorang', 'tokoh', 'penegak', 'hukum', 'yg', 'penuh', 'integritras', 'mantan', 'hakim', 'agung', 'artidjo', 'alkostar']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['kita', 'ditinggalkan', 'lagi', 'oleh', 'seorang', 'tokoh', 'penegak', 'hukum', 'yang', 'penuh', 'integritras', 'mantan', 'hakim', 'agung', 'artidjo', 'alkostar']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['sahabat', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'yogya', 'prof', 'firmanzah', 'guru', 'ui', 'univ', 'paramadina', 'waf']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['sahabat', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'yogya', 'prof', 'firmanzah', 'guru', 'ui', 'univ', 'paramadina', 'waf']</t>
+          <t>['ditinggalkan', 'tokoh', 'penegak', 'hukum', 'penuh', 'integritras', 'mantan', 'hakim', 'agung', 'artidjo', 'alkostar']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['tinggal', 'tokoh', 'tegak', 'hukum', 'penuh', 'integritras', 'mantan', 'hakim', 'agung', 'artidjo', 'alkostar']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17959</v>
+        <v>30263</v>
       </c>
       <c r="C17" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>kang emil terimakasih atas kiriman durian kemarin sore duren jatohan ya kami menikmatinya bersama ke</t>
+          <t>upaya utk lemahkan kpk selalu terjadi tiap periode tp kpk tetap tegar krn sistem dan mekanisme kpk kuat saat ini</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['kang', 'emil', 'terimakasih', 'atas', 'kiriman', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'ya', 'kami', 'menikmatinya', 'bersama', 'ke']</t>
+          <t>['upaya', 'utk', 'lemahkan', 'kpk', 'selalu', 'terjadi', 'tiap', 'periode', 'tp', 'kpk', 'tetap', 'tegar', 'krn', 'sistem', 'dan', 'mekanisme', 'kpk', 'kuat', 'saat', 'ini']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['upaya', 'untuk', 'lemahkan', 'komisi, pemberantasan, korupsi', 'selalu', 'terjadi', 'tiap', 'periode', 'tetapi', 'komisi, pemberantasan, korupsi', 'tetap', 'tegar', 'karena', 'sistem', 'dan', 'mekanisme', 'komisi, pemberantasan, korupsi', 'kuat', 'saat', 'ini']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kang', 'emil', 'terimakasih', 'kiriman', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'menikmatinya']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kang', 'emil', 'terimakasih', 'kirim', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'nikmat']</t>
+          <t>['upaya', 'lemahkan', 'komisi, pemberantasan, korupsi', 'periode', 'komisi, pemberantasan, korupsi', 'tegar', 'sistem', 'mekanisme', 'komisi, pemberantasan, korupsi', 'kuat']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['upaya', 'lemah', 'komisi berantas korupsi', 'periode', 'komisi berantas korupsi', 'tegar', 'sistem', 'mekanisme', 'komisi berantas korupsi', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17960</v>
+        <v>30264</v>
       </c>
       <c r="C18" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>di era demokrasi yg sangat terbuka dan dikontrol oleh masyarakat spt skrng ini sulit dipercaya kepemimpinan partai</t>
+          <t>kpk hrs tetap berpijak pd statement pimpinan kpk sendiri biar kami dituding lemah atau tdk baik tp kami akan ber</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['di', 'era', 'demokrasi', 'yg', 'sangat', 'terbuka', 'dan', 'dikontrol', 'oleh', 'masyarakat', 'spt', 'skrng', 'ini', 'sulit', 'dipercaya', 'kepemimpinan', 'partai']</t>
+          <t>['kpk', 'hrs', 'tetap', 'berpijak', 'pd', 'statement', 'pimpinan', 'kpk', 'sendiri', 'biar', 'kami', 'dituding', 'lemah', 'atau', 'tdk', 'baik', 'tp', 'kami', 'akan', 'ber']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['komisi, pemberantasan, korupsi', 'harus', 'tetap', 'berpijak', 'pada', 'pernyataan', 'pimpinan', 'komisi, pemberantasan, korupsi', 'sendiri', 'biar', 'kami', 'dituding', 'lemah', 'atau', 'tidak', 'baik', 'tetapi', 'kami', 'akan', 'ber']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['era', 'demokrasi', 'terbuka', 'dikontrol', 'masyarakat', 'spt', 'skrng', 'sulit', 'dipercaya', 'kepemimpinan', 'partai']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['era', 'demokrasi', 'buka', 'kontrol', 'masyarakat', 'spt', 'skrng', 'sulit', 'percaya', 'pimpin', 'partai']</t>
+          <t>['komisi, pemberantasan, korupsi', 'berpijak', 'pernyataan', 'pimpinan', 'komisi, pemberantasan, korupsi', 'dituding', 'lemah', 'ber']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'pijak', 'nyata', 'pimpin', 'komisi berantas korupsi', 'tuding', 'lemah', 'ber']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17961</v>
+        <v>30265</v>
       </c>
       <c r="C19" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ada isu aneh dikabarkan bbrapa menteri trmsk menkopolhukam mahfud md merestui ka ksp moeldoko mengambil alih pa</t>
+          <t>bicara santai bersama om why yg orangnya kocakgt part seru ngobrolin kasus tanah sampe korupsi bareng men</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['ada', 'isu', 'aneh', 'dikabarkan', 'bbrapa', 'menteri', 'trmsk', 'menkopolhukam', 'mahfud', 'md', 'merestui', 'ka', 'ksp', 'moeldoko', 'mengambil', 'alih', 'pa']</t>
+          <t>['bicara', 'santai', 'bersama', 'om', 'why', 'yg', 'orangnya', 'kocakgt', 'part', 'seru', 'ngobrolin', 'kasus', 'tanah', 'sampe', 'korupsi', 'bareng', 'men']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['bicara', 'santai', 'bersama', 'om', 'kenapa', 'yang', 'orangnya', 'kocakgt', 'part', 'seru', 'membicarakan', 'kasus', 'tanah', 'sampai', 'korupsi', 'bareng', 'men']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['isu', 'aneh', 'dikabarkan', 'bbrapa', 'menteri', 'trmsk', 'menkopolhukam', 'mahfud', 'md', 'merestui', 'ka', 'ksp', 'moeldoko', 'mengambil', 'alih', 'pa']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['isu', 'aneh', 'kabar', 'bbrapa', 'menteri', 'trmsk', 'menkopolhukam', 'mahfud', 'md', 'restu', 'ka', 'ksp', 'moeldoko', 'ambil', 'alih', 'pa']</t>
+          <t>['bicara', 'santai', 'om', 'orangnya', 'kocakgt', 'part', 'seru', 'membicarakan', 'tanah', 'korupsi', 'bareng', 'men']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['bicara', 'santai', 'om', 'orang', 'kocakgt', 'part', 'seru', 'bicara', 'tanah', 'korupsi', 'bareng', 'men']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17962</v>
+        <v>30266</v>
       </c>
       <c r="C20" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">prof abdul muti menyampaikan tahniah ucapan selamat atas harlah nu yg ke sekjen pp muhammadiyah ini fasih </t>
+          <t>ikut berdukacita atas wafatnya hj ellyda ibunda hr ini semoga husnul khatimah alangkah besar pengor</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['prof', 'abdul', 'muti', 'menyampaikan', 'tahniah', 'ucapan', 'selamat', 'atas', 'harlah', 'nu', 'yg', 'ke', 'sekjen', 'pp', 'muhammadiyah', 'ini', 'fasih']</t>
+          <t>['ikut', 'berdukacita', 'atas', 'wafatnya', 'hj', 'ellyda', 'ibunda', 'hr', 'ini', 'semoga', 'husnul', 'khatimah', 'alangkah', 'besar', 'pengor']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ikut', 'berdukacita', 'atas', 'wafatnya', 'hj', 'ellyda', 'ibunda', 'hari', 'ini', 'semoga', 'husnul', 'khatimah', 'alangkah', 'besar', 'pengor']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['prof', 'abdul', 'muti', 'tahniah', 'ucapan', 'selamat', 'harlah', 'nu', 'sekjen', 'pp', 'muhammadiyah', 'fasih']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['prof', 'abdul', 'muti', 'tahniah', 'ucap', 'selamat', 'harlah', 'nu', 'sekjen', 'pp', 'muhammadiyah', 'fasih']</t>
+          <t>['berdukacita', 'wafatnya', 'hj', 'ellyda', 'ibunda', 'semoga', 'husnul', 'khatimah', 'alangkah', 'pengor']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['dukacita', 'wafat', 'hj', 'ellyda', 'ibunda', 'moga', 'husnul', 'khatimah', 'alangkah', 'kor']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17963</v>
+        <v>30267</v>
       </c>
       <c r="C21" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ungkapan hubbul wathon minal iman cinta tanah air adl bagian dari iman bukan ayat quran atau pun hadits nabi</t>
+          <t>bersyukur dan ikhlas yakin usaha sampai kamis malam dpt hdr dlm acr puncak dies natalis himpunan maha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['ungkapan', 'hubbul', 'wathon', 'minal', 'iman', 'cinta', 'tanah', 'air', 'adl', 'bagian', 'dari', 'iman', 'bukan', 'ayat', 'quran', 'atau', 'pun', 'hadits', 'nabi']</t>
+          <t>['bersyukur', 'dan', 'ikhlas', 'yakin', 'usaha', 'sampai', 'kamis', 'malam', 'dpt', 'hdr', 'dlm', 'acr', 'puncak', 'dies', 'natalis', 'himpunan', 'maha']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['bersyukur', 'dan', 'ikhlas', 'yakin', 'usaha', 'sampai', 'kamis', 'malam', 'dapat', 'hdr', 'dalam', 'acr', 'puncak', 'dies', 'natalis', 'himpunan', 'maha']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['ungkapan', 'hubbul', 'wathon', 'minal', 'iman', 'cinta', 'tanah', 'air', 'adl', 'iman', 'ayat', 'quran', 'hadits', 'nabi']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['ungkap', 'hubbul', 'wathon', 'mal', 'iman', 'cinta', 'tanah', 'air', 'adl', 'iman', 'ayat', 'quran', 'hadits', 'nabi']</t>
+          <t>['bersyukur', 'ikhlas', 'usaha', 'kamis', 'malam', 'hdr', 'acr', 'puncak', 'dies', 'natalis', 'himpunan', 'maha']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['syukur', 'ikhlas', 'usaha', 'kamis', 'malam', 'hdr', 'acr', 'puncak', 'dies', 'natalis', 'himpun', 'maha']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17964</v>
+        <v>30268</v>
       </c>
       <c r="C22" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>selamat hr jadi nahdlatul ulama nu yg ke bangsa indonesia patut bersyukur mempunyai nu ormas islam yg menyeb</t>
+          <t>farouk muhammad mantan kapolda ntb rektor ptik wakil ketua dpd telah wafat hari kamis pebruari almarh</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['selamat', 'hr', 'jadi', 'nahdlatul', 'ulama', 'nu', 'yg', 'ke', 'bangsa', 'indonesia', 'patut', 'bersyukur', 'mempunyai', 'nu', 'ormas', 'islam', 'yg', 'menyeb']</t>
+          <t>['farouk', 'muhammad', 'mantan', 'kapolda', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dpd', 'telah', 'wafat', 'hari', 'kamis', 'pebruari', 'almarh']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['farouk', 'muhammad', 'mantan', 'kepala, kepolisian, daerah', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dewan, perwakilan, daerah', 'telah', 'wafat', 'hari', 'kamis', 'februari', 'almarh']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['selamat', 'hr', 'nahdlatul', 'ulama', 'nu', 'bangsa', 'indonesia', 'patut', 'bersyukur', 'nu', 'ormas', 'islam', 'menyeb']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['selamat', 'hr', 'nahdlatul', 'ulama', 'nu', 'bangsa', 'indonesia', 'patut', 'syukur', 'nu', 'ormas', 'islam', 'menyeb']</t>
+          <t>['farouk', 'muhammad', 'mantan', 'kepala, kepolisian, daerah', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dewan, perwakilan, daerah', 'wafat', 'kamis', 'februari', 'almarh']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['farouk', 'muhammad', 'mantan', 'kepala polisi daerah', 'ntb', 'rektor', 'ptik', 'wakil', 'ketua', 'dewan wakil daerah', 'wafat', 'kamis', 'februari', 'almarh']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17965</v>
+        <v>30269</v>
       </c>
       <c r="C23" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>kalau anda tak suka dgn statement atau tudingan seseorang yg anda anggap ngaco tak usahlah menghinanya dgn cacian</t>
+          <t>pemerintah akan mendiskusikan inisiatif utk merevisi uu ite dulu pd bnyk yg usul dgn penuh semangat agar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['kalau', 'anda', 'tak', 'suka', 'dgn', 'statement', 'atau', 'tudingan', 'seseorang', 'yg', 'anda', 'anggap', 'ngaco', 'tak', 'usahlah', 'menghinanya', 'dgn', 'cacian']</t>
+          <t>['pemerintah', 'akan', 'mendiskusikan', 'inisiatif', 'utk', 'merevisi', 'uu', 'ite', 'dulu', 'pd', 'bnyk', 'yg', 'usul', 'dgn', 'penuh', 'semangat', 'agar']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['pemerintah', 'akan', 'mendiskusikan', 'inisiatif', 'untuk', 'merevisi', 'undang, undang', 'informasi, transaksi, elektronik', 'dulu', 'pada', 'banyak', 'yang', 'usul', 'dengan', 'penuh', 'semangat', 'agar']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['suka', 'statement', 'tudingan', 'anggap', 'ngaco', 'usahlah', 'menghinanya', 'cacian']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['suka', 'statement', 'tuding', 'anggap', 'ngaco', 'usah', 'hina', 'caci']</t>
+          <t>['pemerintah', 'mendiskusikan', 'inisiatif', 'merevisi', 'undang, undang', 'informasi, transaksi, elektronik', 'usul', 'penuh', 'semangat']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['perintah', 'diskusi', 'inisiatif', 'revisi', 'undang undang', 'informasi transaksi elektronik', 'usul', 'penuh', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17966</v>
+        <v>30270</v>
       </c>
       <c r="C24" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>kebijakan penyetaraan pendidikan agama dan pendidikan umum oleh dua menteri itu skrng menunjukkan hasilnya pejabat</t>
+          <t>apalagi baru ini juga keluarga pak jk melaporkan ferdinand hutahaian rusli kamri dan cawalkot makassar ke polisi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['kebijakan', 'penyetaraan', 'pendidikan', 'agama', 'dan', 'pendidikan', 'umum', 'oleh', 'dua', 'menteri', 'itu', 'skrng', 'menunjukkan', 'hasilnya', 'pejabat']</t>
+          <t>['apalagi', 'baru', 'ini', 'juga', 'keluarga', 'pak', 'jk', 'melaporkan', 'ferdinand', 'hutahaian', 'rusli', 'kamri', 'dan', 'cawalkot', 'makassar', 'ke', 'polisi']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['apalagi', 'baru', 'ini', 'juga', 'keluarga', 'pak', 'jika', 'melaporkan', 'ferdinan', 'hutahaian', 'rusli', 'kamri', 'dan', 'cawalkot', 'makassar', 'ke', 'polisi']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['kebijakan', 'penyetaraan', 'pendidikan', 'agama', 'pendidikan', 'menteri', 'skrng', 'hasilnya', 'pejabat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['bijak', 'tara', 'didik', 'agama', 'didik', 'menteri', 'skrng', 'hasil', 'jabat']</t>
+          <t>['keluarga', 'melaporkan', 'ferdinan', 'hutahaian', 'rusli', 'kamri', 'cawalkot', 'makassar', 'polisi']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['keluarga', 'lapor', 'ferdinan', 'hutahaian', 'rusli', 'kamri', 'cawalkot', 'makassar', 'polisi']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17967</v>
+        <v>30271</v>
       </c>
       <c r="C25" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>pada awal an menag wahid hasyim nu dan mendikjar bahder johan masyumi membuat kebijakan sekolah umum dan</t>
+          <t>jd pak jk tak bermaksud menuding zaman pemerintah skrng ini kalau mengritik dipanggil polisi tp itu terjadi sejak</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['pada', 'awal', 'an', 'menag', 'wahid', 'hasyim', 'nu', 'dan', 'mendikjar', 'bahder', 'johan', 'masyumi', 'membuat', 'kebijakan', 'sekolah', 'umum', 'dan']</t>
+          <t>['jd', 'pak', 'jk', 'tak', 'bermaksud', 'menuding', 'zaman', 'pemerintah', 'skrng', 'ini', 'kalau', 'mengritik', 'dipanggil', 'polisi', 'tp', 'itu', 'terjadi', 'sejak']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['jadi', 'pak', 'jika', 'tak', 'bermaksud', 'menuding', 'zaman', 'pemerintah', 'sekarang', 'ini', 'kalau', 'mengritik', 'dipanggil', 'polisi', 'tetapi', 'itu', 'terjadi', 'sejak']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['an', 'menag', 'wahid', 'hasyim', 'nu', 'mendikjar', 'bahder', 'johan', 'masyumi', 'kebijakan', 'sekolah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['an', 'menag', 'wahid', 'hasyim', 'nu', 'mendikjar', 'bahder', 'johan', 'masyumi', 'bijak', 'sekolah']</t>
+          <t>['menuding', 'zaman', 'pemerintah', 'mengritik', 'dipanggil', 'polisi']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['tuding', 'zaman', 'perintah', 'mengritik', 'panggil', 'polisi']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17968</v>
+        <v>30272</v>
       </c>
       <c r="C26" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sd akhir an di indonesia terasa ada diskriminasi thd orang islam tp berkat perjuangan yg kuat dari nu muhamm</t>
+          <t xml:space="preserve">pertanyaan pak jk ttg bagaimana menyampaikan kritik agar tak dipanggil polisi hrs dipahami sbg pertanyaan biasa </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['sd', 'akhir', 'an', 'di', 'indonesia', 'terasa', 'ada', 'diskriminasi', 'thd', 'orang', 'islam', 'tp', 'berkat', 'perjuangan', 'yg', 'kuat', 'dari', 'nu', 'muhamm']</t>
+          <t>['pertanyaan', 'pak', 'jk', 'ttg', 'bagaimana', 'menyampaikan', 'kritik', 'agar', 'tak', 'dipanggil', 'polisi', 'hrs', 'dipahami', 'sbg', 'pertanyaan', 'biasa']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['pertanyaan', 'pak', 'jika', 'tentang', 'bagaimana', 'menyampaikan', 'kritik', 'agar', 'tak', 'dipanggil', 'polisi', 'harus', 'dipahami', 'sebagai', 'pertanyaan', 'biasa']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['sd', 'an', 'indonesia', 'diskriminasi', 'thd', 'orang', 'islam', 'tp', 'berkat', 'perjuangan', 'kuat', 'nu', 'muhamm']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['sd', 'an', 'indonesia', 'diskriminasi', 'thd', 'orang', 'islam', 'tp', 'berkat', 'juang', 'kuat', 'nu', 'muhamm']</t>
+          <t>['kritik', 'dipanggil', 'polisi', 'dipahami']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['kritik', 'panggil', 'polisi', 'paham']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17969</v>
+        <v>30273</v>
       </c>
       <c r="C27" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">akhir an sd an anak sekolah dilarang pakai jilbab kita protes keras aturan tsb ke depdikbud setelah </t>
+          <t>memang ada beberapa orang yg mengaku dari itb menyampaikan masalah din syamsuddin kpd menteri panrb pak tjahjo kum</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['akhir', 'an', 'sd', 'an', 'anak', 'sekolah', 'dilarang', 'pakai', 'jilbab', 'kita', 'protes', 'keras', 'aturan', 'tsb', 'ke', 'depdikbud', 'setelah']</t>
+          <t>['memang', 'ada', 'beberapa', 'orang', 'yg', 'mengaku', 'dari', 'itb', 'menyampaikan', 'masalah', 'din', 'syamsuddin', 'kpd', 'menteri', 'panrb', 'pak', 'tjahjo', 'kum']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['memang', 'ada', 'beberapa', 'orang', 'yang', 'mengaku', 'dari', 'institut, teknologi, bandung', 'menyampaikan', 'masalah', 'din', 'syamsuddin', 'kepada', 'menteri', 'panrb', 'pak', 'tjahjo', 'kum']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['an', 'sd', 'an', 'anak', 'sekolah', 'dilarang', 'pakai', 'jilbab', 'protes', 'keras', 'aturan', 'tsb', 'depdikbud']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['an', 'sd', 'an', 'anak', 'sekolah', 'larang', 'pakai', 'jilbab', 'protes', 'keras', 'atur', 'tsb', 'depdikbud']</t>
+          <t>['orang', 'mengaku', 'institut, teknologi, bandung', 'din', 'syamsuddin', 'menteri', 'panrb', 'tjahjo', 'kum']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['orang', 'aku', 'institut teknologi bandung', 'din', 'syamsuddin', 'menteri', 'panrb', 'tjahjo', 'kum']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17970</v>
+        <v>30274</v>
       </c>
       <c r="C28" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">salah satu janji calon kapolri komjen listyo sigit yg tdk bnyk diberitakan tapi mendapat tepukan meriah di komisi </t>
+          <t>muhammadiyah dan nu kompak mengkampanyekan bhw nkri berdasar pancasila sejalan dgn islam nu menyebut darul mietsa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['salah', 'satu', 'janji', 'calon', 'kapolri', 'komjen', 'listyo', 'sigit', 'yg', 'tdk', 'bnyk', 'diberitakan', 'tapi', 'mendapat', 'tepukan', 'meriah', 'di', 'komisi']</t>
+          <t>['muhammadiyah', 'dan', 'nu', 'kompak', 'mengkampanyekan', 'bhw', 'nkri', 'berdasar', 'pancasila', 'sejalan', 'dgn', 'islam', 'nu', 'menyebut', 'darul', 'mietsa']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['muhammadiyah', 'dan', 'nu', 'kompak', 'mengkampanyekan', 'bahwa', 'negara, kesatuan, republik, indonesia', 'berdasar', 'pancasila', 'sejalan', 'dengan', 'islam', 'nu', 'menyebut', 'darul', 'mietsa']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['salah', 'janji', 'calon', 'kapolri', 'komjen', 'listyo', 'sigit', 'bnyk', 'diberitakan', 'tepukan', 'meriah', 'komisi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['salah', 'janji', 'calon', 'kapolri', 'komjen', 'listyo', 'sigit', 'bnyk', 'berita', 'tepu', 'riah', 'komisi']</t>
+          <t>['muhammadiyah', 'nu', 'kompak', 'mengkampanyekan', 'negara, kesatuan, republik, indonesia', 'berdasar', 'pancasila', 'sejalan', 'islam', 'nu', 'menyebut', 'darul', 'mietsa']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['muhammadiyah', 'nu', 'kompak', 'kampanye', 'negara satu republik indonesia', 'dasar', 'pancasila', 'jalan', 'islam', 'nu', 'sebut', 'darul', 'mietsa']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17971</v>
+        <v>30275</v>
       </c>
       <c r="C29" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>betul itu foto pertemuan saya terakhir dgn almarhum bpk sayidiman di rumah dubes jepang waktu itu kita berbuka pu</t>
+          <t>pemerintah tdk prnh menganggap din syamsuddin radikal atau penganut radikalisme pak din itu pengusung moderasi ber</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['betul', 'itu', 'foto', 'pertemuan', 'saya', 'terakhir', 'dgn', 'almarhum', 'bpk', 'sayidiman', 'di', 'rumah', 'dubes', 'jepang', 'waktu', 'itu', 'kita', 'berbuka', 'pu']</t>
+          <t>['pemerintah', 'tdk', 'prnh', 'menganggap', 'din', 'syamsuddin', 'radikal', 'atau', 'penganut', 'radikalisme', 'pak', 'din', 'itu', 'pengusung', 'moderasi', 'ber']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['pemerintah', 'tidak', 'pernah', 'menganggap', 'din', 'syamsuddin', 'radikal', 'atau', 'penganut', 'radikalisme', 'pak', 'din', 'itu', 'pengusung', 'moderasi', 'ber']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['foto', 'pertemuan', 'almarhum', 'bpk', 'sayidiman', 'rumah', 'dubes', 'jepang', 'berbuka', 'pu']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['foto', 'temu', 'almarhum', 'bpk', 'sayidiman', 'rumah', 'dubes', 'jepang', 'buka', 'pu']</t>
+          <t>['pemerintah', 'menganggap', 'din', 'syamsuddin', 'radikal', 'penganut', 'radikalisme', 'din', 'pengusung', 'moderasi', 'ber']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['perintah', 'anggap', 'din', 'syamsuddin', 'radikal', 'anut', 'radikalisme', 'din', 'usung', 'moderasi', 'ber']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17972</v>
+        <v>30276</v>
       </c>
       <c r="C30" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>terakhir saya ketemu pak sayidiman pd acr buka bersama di kedubes jepang di jakarta beliau adl jg mantan dubes ri</t>
+          <t xml:space="preserve">selamat tahun baru imlek yg ke yg lalu orang tiongkok sdh membangun tradisi syukuran saling memberi </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['terakhir', 'saya', 'ketemu', 'pak', 'sayidiman', 'pd', 'acr', 'buka', 'bersama', 'di', 'kedubes', 'jepang', 'di', 'jakarta', 'beliau', 'adl', 'jg', 'mantan', 'dubes', 'ri']</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'yg', 'ke', 'yg', 'lalu', 'orang', 'tiongkok', 'sdh', 'membangun', 'tradisi', 'syukuran', 'saling', 'memberi']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'yang', 'ke', 'yang', 'lalu', 'orang', 'tiongkok', 'sudah', 'membangun', 'tradisi', 'syukuran', 'saling', 'memberi']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['ketemu', 'sayidiman', 'pd', 'acr', 'buka', 'kedubes', 'jepang', 'jakarta', 'beliau', 'adl', 'jg', 'mantan', 'dubes', 'ri']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['ketemu', 'sayidiman', 'pd', 'acr', 'buka', 'dubes', 'jepang', 'jakarta', 'beliau', 'adl', 'jg', 'mantan', 'dubes', 'ri']</t>
+          <t>['selamat', 'imlek', 'orang', 'tiongkok', 'membangun', 'tradisi', 'syukuran']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['selamat', 'imlek', 'orang', 'tiongkok', 'bangun', 'tradisi', 'syukur']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17973</v>
+        <v>30277</v>
       </c>
       <c r="C31" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ktk diangkat jd menhan sy agak buta tentang tni maka sy undang ahli tni dan pakar sejarah dwifungsi abri ke</t>
+          <t>tiba merasa kangen dgn kehangatan berteman dgn almarhum syech ali jaber hr ini sy mendapat kiriman video salam ha</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['ktk', 'diangkat', 'jd', 'menhan', 'sy', 'agak', 'buta', 'tentang', 'tni', 'maka', 'sy', 'undang', 'ahli', 'tni', 'dan', 'pakar', 'sejarah', 'dwifungsi', 'abri', 'ke']</t>
+          <t>['tiba', 'merasa', 'kangen', 'dgn', 'kehangatan', 'berteman', 'dgn', 'almarhum', 'syech', 'ali', 'jaber', 'hr', 'ini', 'sy', 'mendapat', 'kiriman', 'video', 'salam', 'ha']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['tiba', 'merasa', 'kangen', 'dengan', 'kehangatan', 'berteman', 'dengan', 'almarhum', 'syech', 'ali', 'jaber', 'hari', 'ini', 'saya', 'mendapat', 'kiriman', 'video', 'salam', 'apa']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['ktk', 'diangkat', 'menhan', 'sy', 'buta', 'tni', 'sy', 'undang', 'ahli', 'tni', 'pakar', 'sejarah', 'dwifungsi', 'abri']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['ktk', 'angkat', 'menhan', 'sy', 'buta', 'tni', 'sy', 'undang', 'ahli', 'tni', 'pakar', 'sejarah', 'dwifungsi', 'abri']</t>
+          <t>['kangen', 'kehangatan', 'berteman', 'almarhum', 'syech', 'ali', 'jaber', 'kiriman', 'video', 'salam']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['kangen', 'hangat', 'teman', 'almarhum', 'syech', 'ali', 'jaber', 'kirim', 'video', 'salam']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17974</v>
+        <v>30278</v>
       </c>
       <c r="C32" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>inna lillah wa inna ilaihi rajiun telah wafat letjen purn sayidiman suryohadiprodjo dlm usia thn saat thn</t>
+          <t>kita ada krn allah ditentukan kapan kembali kpd allah oleh allah jua inna lillah wa inna ilaihi rajiun ayahanda</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'telah', 'wafat', 'letjen', 'purn', 'sayidiman', 'suryohadiprodjo', 'dlm', 'usia', 'thn', 'saat', 'thn']</t>
+          <t>['kita', 'ada', 'krn', 'allah', 'ditentukan', 'kapan', 'kembali', 'kpd', 'allah', 'oleh', 'allah', 'jua', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['kita', 'ada', 'karena', 'allah', 'ditentukan', 'kapan', 'kembali', 'kepada', 'allah', 'oleh', 'allah', 'jua', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafat', 'letjen', 'purn', 'sayidiman', 'suryohadiprodjo', 'dlm', 'usia', 'thn', 'thn']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafat', 'letjen', 'purn', 'sayidiman', 'suryohadiprodjo', 'dlm', 'usia', 'thn', 'thn']</t>
+          <t>['allah', 'ditentukan', 'allah', 'allah', 'jua', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['allah', 'tentu', 'allah', 'allah', 'jua', 'inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'ayahanda']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17975</v>
+        <v>30279</v>
       </c>
       <c r="C33" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>presiden jg meminta kahmi trs berkhidzmah membangun integrasi keislaman dan kebangsaan dlm kerangka islam wasathiyy</t>
+          <t>dua sahabat baik kh atabik ali ponpes krapyak yogya dan prof firmanzah guru besar ui dan univ paramadina waf</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['presiden', 'jg', 'meminta', 'kahmi', 'trs', 'berkhidzmah', 'membangun', 'integrasi', 'keislaman', 'dan', 'kebangsaan', 'dlm', 'kerangka', 'islam', 'wasathiyy']</t>
+          <t>['dua', 'sahabat', 'baik', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'yogya', 'dan', 'prof', 'firmanzah', 'guru', 'besar', 'ui', 'dan', 'univ', 'paramadina', 'waf']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dua', 'sahabat', 'baik', 'kh', 'atabik', 'ali', 'pondok, pesantren', 'krapyak', 'yogyakarta', 'dan', 'prof', 'firmanzah', 'guru', 'besar', 'oi', 'dan', 'universitas', 'paramadina', 'waf']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['presiden', 'jg', 'kahmi', 'trs', 'berkhidzmah', 'membangun', 'integrasi', 'keislaman', 'kebangsaan', 'dlm', 'kerangka', 'islam', 'wasathiyy']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['presiden', 'jg', 'kahmi', 'trs', 'berkhidzmah', 'bangun', 'integrasi', 'islam', 'bangsa', 'dlm', 'kerangka', 'islam', 'wasathiyy']</t>
+          <t>['sahabat', 'kh', 'atabik', 'ali', 'pondok, pesantren', 'krapyak', 'yogyakarta', 'prof', 'firmanzah', 'guru', 'oi', 'universitas', 'paramadina', 'waf']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['sahabat', 'kh', 'atabik', 'ali', 'pondok pesantren', 'krapyak', 'yogyakarta', 'prof', 'firmanzah', 'guru', 'oi', 'universitas', 'paramadina', 'waf']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17976</v>
+        <v>30280</v>
       </c>
       <c r="C34" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>jam siang ini presiden jokowi membuka rakernas iii korps alumni himpunan mahasiswa islam kahmi presiden me</t>
+          <t>kang emil terimakasih atas kiriman durian kemarin sore duren jatohan ya kami menikmatinya bersama ke</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['jam', 'siang', 'ini', 'presiden', 'jokowi', 'membuka', 'rakernas', 'iii', 'korps', 'alumni', 'himpunan', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
+          <t>['kang', 'emil', 'terimakasih', 'atas', 'kiriman', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'ya', 'kami', 'menikmatinya', 'bersama', 'ke']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kang', 'emil', 'terima, kasih', 'atas', 'kiriman', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'ya', 'kami', 'menikmatinya', 'bersama', 'ke']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['jam', 'siang', 'presiden', 'jokowi', 'membuka', 'rakernas', 'iii', 'korps', 'alumni', 'himpunan', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['jam', 'siang', 'presiden', 'jokowi', 'buka', 'rakernas', 'iii', 'korps', 'alumni', 'himpun', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
+          <t>['kang', 'emil', 'terima, kasih', 'kiriman', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'menikmatinya']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kang', 'emil', 'terima kasih', 'kirim', 'durian', 'kemarin', 'sore', 'duren', 'jatohan', 'nikmat']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17977</v>
+        <v>30281</v>
       </c>
       <c r="C35" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ada istilah pemberian yg berbeda shadaqah sedekah risywah suapkorupsi hadiyyah hadiah nabi sendiri meno</t>
+          <t>di era demokrasi yg sangat terbuka dan dikontrol oleh masyarakat spt skrng ini sulit dipercaya kepemimpinan partai</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['ada', 'istilah', 'pemberian', 'yg', 'berbeda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'sendiri', 'meno']</t>
+          <t>['di', 'era', 'demokrasi', 'yg', 'sangat', 'terbuka', 'dan', 'dikontrol', 'oleh', 'masyarakat', 'spt', 'skrng', 'ini', 'sulit', 'dipercaya', 'kepemimpinan', 'partai']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['di', 'era', 'demokrasi', 'yang', 'sangat', 'terbuka', 'dan', 'dikontrol', 'oleh', 'masyarakat', 'surat, pemberitahuan, tahunan', 'sekarang', 'ini', 'sulit', 'dipercaya', 'kepemimpinan', 'partai']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['istilah', 'pemberian', 'berbeda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'meno']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['istilah', 'beri', 'beda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'meno']</t>
+          <t>['era', 'demokrasi', 'terbuka', 'dikontrol', 'masyarakat', 'surat, pemberitahuan, tahunan', 'sulit', 'dipercaya', 'kepemimpinan', 'partai']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['era', 'demokrasi', 'buka', 'kontrol', 'masyarakat', 'surat pemberitahuan tahun', 'sulit', 'percaya', 'pimpin', 'partai']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17978</v>
+        <v>30282</v>
       </c>
       <c r="C36" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>kalau ke rmh syech ali jaber sy diajak makan nasi bukhori kebuli khas arab dan duren kalau beliau ke rmh sy mak</t>
+          <t>ada isu aneh dikabarkan bbrapa menteri trmsk menkopolhukam mahfud md merestui ka ksp moeldoko mengambil alih pa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['kalau', 'ke', 'rmh', 'syech', 'ali', 'jaber', 'sy', 'diajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'dan', 'duren', 'kalau', 'beliau', 'ke', 'rmh', 'sy', 'mak']</t>
+          <t>['ada', 'isu', 'aneh', 'dikabarkan', 'bbrapa', 'menteri', 'trmsk', 'menkopolhukam', 'mahfud', 'md', 'merestui', 'ka', 'ksp', 'moeldoko', 'mengambil', 'alih', 'pa']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
+          <t>['ada', 'isu', 'aneh', 'dikabarkan', 'beberapa', 'menteri', 'termasuk', 'menkopolhukam', 'mahfud', 'md', 'merestui', 'kakak', 'ksp', 'moeldoko', 'mengambil', 'alih', 'pak']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['rmh', 'syech', 'ali', 'jaber', 'sy', 'diajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'duren', 'beliau', 'rmh', 'sy', 'mak']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['rmh', 'syech', 'ali', 'jaber', 'sy', 'ajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'duren', 'beliau', 'rmh', 'sy', 'mak']</t>
+          <t>['isu', 'aneh', 'dikabarkan', 'menteri', 'menkopolhukam', 'mahfud', 'md', 'merestui', 'kakak', 'ksp', 'moeldoko', 'mengambil', 'alih']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['isu', 'aneh', 'kabar', 'menteri', 'menkopolhukam', 'mahfud', 'md', 'restu', 'kakak', 'ksp', 'moeldoko', 'ambil', 'alih']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17979</v>
+        <v>30283</v>
       </c>
       <c r="C37" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>bbrp hr sblm diberitakan terinfeksi covid syekh ali jaber ke rmh sy menghadiahi tasbih kurma pilihan buku doa</t>
+          <t xml:space="preserve">prof abdul muti menyampaikan tahniah ucapan selamat atas harlah nu yg ke sekjen pp muhammadiyah ini fasih </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['bbrp', 'hr', 'sblm', 'diberitakan', 'terinfeksi', 'covid', 'syekh', 'ali', 'jaber', 'ke', 'rmh', 'sy', 'menghadiahi', 'tasbih', 'kurma', 'pilihan', 'buku', 'doa']</t>
+          <t>['prof', 'abdul', 'muti', 'menyampaikan', 'tahniah', 'ucapan', 'selamat', 'atas', 'harlah', 'nu', 'yg', 'ke', 'sekjen', 'pp', 'muhammadiyah', 'ini', 'fasih']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['prof', 'abdul', 'muti', 'menyampaikan', 'tahniah', 'ucapan', 'selamat', 'atas', 'harlah', 'nu', 'yang', 'ke', 'sekretariat, jenderal', 'pp', 'muhammadiyah', 'ini', 'fasih']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['bbrp', 'hr', 'sblm', 'diberitakan', 'terinfeksi', 'covid', 'syekh', 'ali', 'jaber', 'rmh', 'sy', 'menghadiahi', 'tasbih', 'kurma', 'pilihan', 'buku', 'doa']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bbrp', 'hr', 'sblm', 'berita', 'infeksi', 'covid', 'syekh', 'ali', 'jaber', 'rmh', 'sy', 'hadiah', 'tasbih', 'kurma', 'pilih', 'buku', 'doa']</t>
+          <t>['prof', 'abdul', 'muti', 'tahniah', 'ucapan', 'selamat', 'harlah', 'nu', 'sekretariat, jenderal', 'pp', 'muhammadiyah', 'fasih']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['prof', 'abdul', 'muti', 'tahniah', 'ucap', 'selamat', 'harlah', 'nu', 'sekretariat jenderal', 'pp', 'muhammadiyah', 'fasih']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17980</v>
+        <v>30284</v>
       </c>
       <c r="C38" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>inna lillah wa inna ilaihi rajiun kita kehilangan tokoh penyejuk dan pemersatu ummat ulama besar syech ali jaber</t>
+          <t>ungkapan hubbul wathon minal iman cinta tanah air adl bagian dari iman bukan ayat quran atau pun hadits nabi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'tokoh', 'penyejuk', 'dan', 'pemersatu', 'ummat', 'ulama', 'besar', 'syech', 'ali', 'jaber']</t>
+          <t>['ungkapan', 'hubbul', 'wathon', 'minal', 'iman', 'cinta', 'tanah', 'air', 'adl', 'bagian', 'dari', 'iman', 'bukan', 'ayat', 'quran', 'atau', 'pun', 'hadits', 'nabi']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['ungkapan', 'hubbul', 'wathon', 'minal', 'iman', 'cinta', 'tanah', 'air', 'adalah', 'bagian', 'dari', 'iman', 'bukan', 'ayat', 'alquran', 'atau', 'pun', 'hadis', 'nabi']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'tokoh', 'penyejuk', 'pemersatu', 'ummat', 'ulama', 'syech', 'ali', 'jaber']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'tokoh', 'sejuk', 'satu', 'ummat', 'ulama', 'syech', 'ali', 'jaber']</t>
+          <t>['ungkapan', 'hubbul', 'wathon', 'minal', 'iman', 'cinta', 'tanah', 'air', 'iman', 'ayat', 'alquran', 'hadis', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['ungkap', 'hubbul', 'wathon', 'mal', 'iman', 'cinta', 'tanah', 'air', 'iman', 'ayat', 'alquran', 'hadis', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17981</v>
+        <v>30285</v>
       </c>
       <c r="C39" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tdk jg kalau kahmi trs sy lbh sering silaturrahim dgn presiden bersama mui nu muhammadiyah pkub dll juga ber</t>
+          <t>selamat hr jadi nahdlatul ulama nu yg ke bangsa indonesia patut bersyukur mempunyai nu ormas islam yg menyeb</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['tdk', 'jg', 'kalau', 'kahmi', 'trs', 'sy', 'lbh', 'sering', 'silaturrahim', 'dgn', 'presiden', 'bersama', 'mui', 'nu', 'muhammadiyah', 'pkub', 'dll', 'juga', 'ber']</t>
+          <t>['selamat', 'hr', 'jadi', 'nahdlatul', 'ulama', 'nu', 'yg', 'ke', 'bangsa', 'indonesia', 'patut', 'bersyukur', 'mempunyai', 'nu', 'ormas', 'islam', 'yg', 'menyeb']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'jadi', 'nahdlatul', 'ulama', 'nu', 'yang', 'ke', 'bangsa', 'indonesia', 'patut', 'bersyukur', 'mempunyai', 'nu', 'organisasi, masyarakat', 'islam', 'yang', 'menyeb']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['jg', 'kahmi', 'trs', 'sy', 'lbh', 'silaturrahim', 'presiden', 'mui', 'nu', 'muhammadiyah', 'pkub', 'dll', 'ber']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['jg', 'kahmi', 'trs', 'sy', 'lbh', 'silaturrahim', 'presiden', 'mui', 'nu', 'muhammadiyah', 'pkub', 'dll', 'ber']</t>
+          <t>['selamat', 'nahdlatul', 'ulama', 'nu', 'bangsa', 'indonesia', 'patut', 'bersyukur', 'nu', 'organisasi, masyarakat', 'islam', 'menyeb']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['selamat', 'nahdlatul', 'ulama', 'nu', 'bangsa', 'indonesia', 'patut', 'syukur', 'nu', 'organisasi masyarakat', 'islam', 'menyeb']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17982</v>
+        <v>30286</v>
       </c>
       <c r="C40" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bersama mensesneg prof pratikno pagi ini saya menemani teman presidium majelis nasional korps alumni</t>
+          <t>kalau anda tak suka dgn statement atau tudingan seseorang yg anda anggap ngaco tak usahlah menghinanya dgn cacian</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['bersama', 'mensesneg', 'prof', 'pratikno', 'pagi', 'ini', 'saya', 'menemani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
+          <t>['kalau', 'anda', 'tak', 'suka', 'dgn', 'statement', 'atau', 'tudingan', 'seseorang', 'yg', 'anda', 'anggap', 'ngaco', 'tak', 'usahlah', 'menghinanya', 'dgn', 'cacian']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kalau', 'anda', 'tak', 'suka', 'dengan', 'pernyataan', 'atau', 'tudingan', 'seseorang', 'yang', 'anda', 'anggap', 'kacau', 'tak', 'usahlah', 'menghinanya', 'dengan', 'cacian']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['mensesneg', 'prof', 'pratikno', 'pagi', 'menemani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['mensesneg', 'prof', 'pratikno', 'pagi', 'tani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
+          <t>['suka', 'pernyataan', 'tudingan', 'anggap', 'kacau', 'usahlah', 'menghinanya', 'cacian']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['suka', 'nyata', 'tuding', 'anggap', 'kacau', 'usah', 'hina', 'caci']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17983</v>
+        <v>30287</v>
       </c>
       <c r="C41" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cara khas yg sering dilakukan presiden dlm memilih pejabat meminta dibuatkan draf surat pengusulan yg berisi nam</t>
+          <t>kebijakan penyetaraan pendidikan agama dan pendidikan umum oleh dua menteri itu skrng menunjukkan hasilnya pejabat</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['cara', 'khas', 'yg', 'sering', 'dilakukan', 'presiden', 'dlm', 'memilih', 'pejabat', 'meminta', 'dibuatkan', 'draf', 'surat', 'pengusulan', 'yg', 'berisi', 'nam']</t>
+          <t>['kebijakan', 'penyetaraan', 'pendidikan', 'agama', 'dan', 'pendidikan', 'umum', 'oleh', 'dua', 'menteri', 'itu', 'skrng', 'menunjukkan', 'hasilnya', 'pejabat']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kebijakan', 'penyetaraan', 'pendidikan', 'agama', 'dan', 'pendidikan', 'umum', 'oleh', 'dua', 'menteri', 'itu', 'sekarang', 'menunjukkan', 'hasilnya', 'pejabat']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['khas', 'presiden', 'dlm', 'memilih', 'pejabat', 'dibuatkan', 'draf', 'surat', 'pengusulan', 'berisi', 'nam']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['khas', 'presiden', 'dlm', 'pilih', 'jabat', 'buat', 'draf', 'surat', 'usul', 'isi', 'nam']</t>
+          <t>['kebijakan', 'penyetaraan', 'pendidikan', 'agama', 'pendidikan', 'menteri', 'hasilnya', 'pejabat']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['bijak', 'tara', 'didik', 'agama', 'didik', 'menteri', 'hasil', 'jabat']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17984</v>
+        <v>30288</v>
       </c>
       <c r="C42" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>nama calon kapolri yg beredar di media skrng msh tebak buah nangka alias spekulasi smpai saat ini presiden blm me</t>
+          <t>pada awal an menag wahid hasyim nu dan mendikjar bahder johan masyumi membuat kebijakan sekolah umum dan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['nama', 'calon', 'kapolri', 'yg', 'beredar', 'di', 'media', 'skrng', 'msh', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'smpai', 'saat', 'ini', 'presiden', 'blm', 'me']</t>
+          <t>['pada', 'awal', 'an', 'menag', 'wahid', 'hasyim', 'nu', 'dan', 'mendikjar', 'bahder', 'johan', 'masyumi', 'membuat', 'kebijakan', 'sekolah', 'umum', 'dan']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['pada', 'awal', 'an', 'menteri, agama', 'wahid', 'hasyim', 'nu', 'dan', 'mendikjar', 'bahder', 'johan', 'masyumi', 'membuat', 'kebijakan', 'sekolah', 'umum', 'dan']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['nama', 'calon', 'kapolri', 'beredar', 'media', 'skrng', 'msh', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'smpai', 'presiden', 'blm', 'me']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['nama', 'calon', 'kapolri', 'edar', 'media', 'skrng', 'msh', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'smpai', 'presiden', 'blm', 'me']</t>
+          <t>['an', 'menteri, agama', 'wahid', 'hasyim', 'nu', 'mendikjar', 'bahder', 'johan', 'masyumi', 'kebijakan', 'sekolah']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['an', 'menteri agama', 'wahid', 'hasyim', 'nu', 'mendikjar', 'bahder', 'johan', 'masyumi', 'bijak', 'sekolah']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17985</v>
+        <v>30289</v>
       </c>
       <c r="C43" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>pd zaman orba ada yayasan supersemar yg dibentuk oleh presiden soeharto yg memberi beasiswa kpd pelajar amp mhs yg ku</t>
+          <t>sd akhir an di indonesia terasa ada diskriminasi thd orang islam tp berkat perjuangan yg kuat dari nu muhamm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['pd', 'zaman', 'orba', 'ada', 'yayasan', 'supersemar', 'yg', 'dibentuk', 'oleh', 'presiden', 'soeharto', 'yg', 'memberi', 'beasiswa', 'kpd', 'pelajar', 'amp', 'mhs', 'yg', 'ku']</t>
+          <t>['sd', 'akhir', 'an', 'di', 'indonesia', 'terasa', 'ada', 'diskriminasi', 'thd', 'orang', 'islam', 'tp', 'berkat', 'perjuangan', 'yg', 'kuat', 'dari', 'nu', 'muhamm']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['sekolah, dasar', 'akhir', 'an', 'di', 'indonesia', 'terasa', 'ada', 'diskriminasi', 'terhadap', 'orang', 'islam', 'tetapi', 'berkat', 'perjuangan', 'yang', 'kuat', 'dari', 'nu', 'muhamm']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['pd', 'zaman', 'orba', 'yayasan', 'supersemar', 'dibentuk', 'presiden', 'soeharto', 'beasiswa', 'kpd', 'pelajar', 'mhs', 'ku']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['pd', 'zaman', 'orba', 'yayasan', 'supersemar', 'bentuk', 'presiden', 'soeharto', 'beasiswa', 'kpd', 'ajar', 'mhs', 'ku']</t>
+          <t>['sekolah, dasar', 'an', 'indonesia', 'diskriminasi', 'orang', 'islam', 'berkat', 'perjuangan', 'kuat', 'nu', 'muhamm']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['sekolah dasar', 'an', 'indonesia', 'diskriminasi', 'orang', 'islam', 'berkat', 'juang', 'kuat', 'nu', 'muhamm']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17986</v>
+        <v>30290</v>
       </c>
       <c r="C44" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>turut berduka inna lillah wa inna ilaihi rajiun atas wafatnya  suaib didu selain sbg adik kandung sahabat kar</t>
+          <t xml:space="preserve">akhir an sd an anak sekolah dilarang pakai jilbab kita protes keras aturan tsb ke depdikbud setelah </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['turut', 'berduka', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'atas', 'wafatnya', 'suaib', 'didu', 'selain', 'sbg', 'adik', 'kandung', 'sahabat', 'kar']</t>
+          <t>['akhir', 'an', 'sd', 'an', 'anak', 'sekolah', 'dilarang', 'pakai', 'jilbab', 'kita', 'protes', 'keras', 'aturan', 'tsb', 'ke', 'depdikbud', 'setelah']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['akhir', 'an', 'sekolah, dasar', 'an', 'anak', 'sekolah', 'dilarang', 'pakai', 'jilbab', 'kita', 'protes', 'keras', 'aturan', 'tersebut', 'ke', 'depdikbud', 'setelah']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['berduka', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafatnya', 'suaib', 'didu', 'sbg', 'adik', 'kandung', 'sahabat', 'kar']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['duka', 'inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafat', 'suaib', 'didu', 'sbg', 'adik', 'kandung', 'sahabat', 'kar']</t>
+          <t>['an', 'sekolah, dasar', 'an', 'anak', 'sekolah', 'dilarang', 'pakai', 'jilbab', 'protes', 'keras', 'aturan', 'depdikbud']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['an', 'sekolah dasar', 'an', 'anak', 'sekolah', 'larang', 'pakai', 'jilbab', 'protes', 'keras', 'atur', 'depdikbud']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17987</v>
+        <v>30291</v>
       </c>
       <c r="C45" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ini nama komjen pol yg diajukan kpd presiden oleh kompolnas utk dipilih sbg calon kapolri gatot edy pramono</t>
+          <t xml:space="preserve">salah satu janji calon kapolri komjen listyo sigit yg tdk bnyk diberitakan tapi mendapat tepukan meriah di komisi </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['ini', 'nama', 'komjen', 'pol', 'yg', 'diajukan', 'kpd', 'presiden', 'oleh', 'kompolnas', 'utk', 'dipilih', 'sbg', 'calon', 'kapolri', 'gatot', 'edy', 'pramono']</t>
+          <t>['salah', 'satu', 'janji', 'calon', 'kapolri', 'komjen', 'listyo', 'sigit', 'yg', 'tdk', 'bnyk', 'diberitakan', 'tapi', 'mendapat', 'tepukan', 'meriah', 'di', 'komisi']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['salah', 'satu', 'janji', 'calon', 'kepala, kepolisian, republik, indonesia', 'komjen', 'listyo', 'sigit', 'yang', 'tidak', 'banyak', 'diberitakan', 'tapi', 'mendapat', 'tepukan', 'meriah', 'di', 'komisi']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['nama', 'komjen', 'pol', 'diajukan', 'kpd', 'presiden', 'kompolnas', 'dipilih', 'sbg', 'calon', 'kapolri', 'gatot', 'edy', 'pramono']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['nama', 'komjen', 'pol', 'aju', 'kpd', 'presiden', 'kompolnas', 'pilih', 'sbg', 'calon', 'kapolri', 'gatot', 'edy', 'pramono']</t>
+          <t>['salah', 'janji', 'calon', 'kepala, kepolisian, republik, indonesia', 'komjen', 'listyo', 'sigit', 'diberitakan', 'tepukan', 'meriah', 'komisi']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['salah', 'janji', 'calon', 'kepala polisi republik indonesia', 'komjen', 'listyo', 'sigit', 'berita', 'tepu', 'riah', 'komisi']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17988</v>
+        <v>30292</v>
       </c>
       <c r="C46" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>mengonfirmasi berbagai berita benar penjelasan pak benny mamoto dan pak wahyudanto dari kompolnas bhw selaku ketua</t>
+          <t>betul itu foto pertemuan saya terakhir dgn almarhum bpk sayidiman di rumah dubes jepang waktu itu kita berbuka pu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['mengonfirmasi', 'berbagai', 'berita', 'benar', 'penjelasan', 'pak', 'benny', 'mamoto', 'dan', 'pak', 'wahyudanto', 'dari', 'kompolnas', 'bhw', 'selaku', 'ketua']</t>
+          <t>['betul', 'itu', 'foto', 'pertemuan', 'saya', 'terakhir', 'dgn', 'almarhum', 'bpk', 'sayidiman', 'di', 'rumah', 'dubes', 'jepang', 'waktu', 'itu', 'kita', 'berbuka', 'pu']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['betul', 'itu', 'foto', 'pertemuan', 'saya', 'terakhir', 'dengan', 'almarhum', 'bapak', 'sayidiman', 'di', 'rumah', 'duta, besar', 'jepang', 'waktu', 'itu', 'kita', 'berbuka', 'punya']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['mengonfirmasi', 'berita', 'penjelasan', 'benny', 'mamoto', 'wahyudanto', 'kompolnas', 'bhw', 'ketua']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['konfirmasi', 'berita', 'jelas', 'benny', 'mamoto', 'wahyudanto', 'kompolnas', 'bhw', 'ketua']</t>
+          <t>['foto', 'pertemuan', 'almarhum', 'sayidiman', 'rumah', 'duta, besar', 'jepang', 'berbuka']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['foto', 'temu', 'almarhum', 'sayidiman', 'rumah', 'duta besar', 'jepang', 'buka']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17989</v>
+        <v>30293</v>
       </c>
       <c r="C47" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>inilah dilemma jika demokrasi terlalu longgar maka integrasi terganggu jika integrasi terlalu ditonjolkan maka de</t>
+          <t>terakhir saya ketemu pak sayidiman pd acr buka bersama di kedubes jepang di jakarta beliau adl jg mantan dubes ri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['inilah', 'dilemma', 'jika', 'demokrasi', 'terlalu', 'longgar', 'maka', 'integrasi', 'terganggu', 'jika', 'integrasi', 'terlalu', 'ditonjolkan', 'maka', 'de']</t>
+          <t>['terakhir', 'saya', 'ketemu', 'pak', 'sayidiman', 'pd', 'acr', 'buka', 'bersama', 'di', 'kedubes', 'jepang', 'di', 'jakarta', 'beliau', 'adl', 'jg', 'mantan', 'dubes', 'ri']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['terakhir', 'saya', 'ketemu', 'pak', 'sayidiman', 'pada', 'acr', 'buka', 'bersama', 'di', 'kedutaan, besar', 'jepang', 'di', 'jakarta', 'beliau', 'adalah', 'juga', 'mantan', 'duta, besar', 'ri']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['dilemma', 'demokrasi', 'longgar', 'integrasi', 'terganggu', 'integrasi', 'ditonjolkan', 'de']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['dilemma', 'demokrasi', 'longgar', 'integrasi', 'ganggu', 'integrasi', 'tonjol', 'de']</t>
+          <t>['ketemu', 'sayidiman', 'acr', 'buka', 'kedutaan, besar', 'jepang', 'jakarta', 'beliau', 'mantan', 'duta, besar', 'ri']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ketemu', 'sayidiman', 'acr', 'buka', 'duta besar', 'jepang', 'jakarta', 'beliau', 'mantan', 'duta besar', 'ri']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17990</v>
+        <v>30294</v>
       </c>
       <c r="C48" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>betul mas mamun kmrn ada yg upload katanya sy joget tanpa masker senang lht itu krn membawa ke nostalgia waktu</t>
+          <t>ktk diangkat jd menhan sy agak buta tentang tni maka sy undang ahli tni dan pakar sejarah dwifungsi abri ke</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['betul', 'mas', 'mamun', 'kmrn', 'ada', 'yg', 'upload', 'katanya', 'sy', 'joget', 'tanpa', 'masker', 'senang', 'lht', 'itu', 'krn', 'membawa', 'ke', 'nostalgia', 'waktu']</t>
+          <t>['ktk', 'diangkat', 'jd', 'menhan', 'sy', 'agak', 'buta', 'tentang', 'tni', 'maka', 'sy', 'undang', 'ahli', 'tni', 'dan', 'pakar', 'sejarah', 'dwifungsi', 'abri', 'ke']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['ktk', 'diangkat', 'jadi', 'menhan', 'saya', 'agak', 'buta', 'tentang', 'tentara, nasional, indonesia', 'maka', 'saya', 'undang', 'ahli', 'tentara, nasional, indonesia', 'dan', 'pakar', 'sejarah', 'dwifungsi', 'abri', 'ke']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['mas', 'mamun', 'kmrn', 'upload', 'sy', 'joget', 'masker', 'senang', 'lht', 'membawa', 'nostalgia']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['mas', 'mamun', 'kmrn', 'upload', 'sy', 'joget', 'masker', 'senang', 'lht', 'bawa', 'nostalgia']</t>
+          <t>['ktk', 'diangkat', 'menhan', 'buta', 'tentara, nasional, indonesia', 'undang', 'ahli', 'tentara, nasional, indonesia', 'pakar', 'sejarah', 'dwifungsi', 'abri']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['ktk', 'angkat', 'menhan', 'buta', 'tentara nasional indonesia', 'undang', 'ahli', 'tentara nasional indonesia', 'pakar', 'sejarah', 'dwifungsi', 'abri']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17991</v>
+        <v>30295</v>
       </c>
       <c r="C49" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>thn bersama dahlan iskan ganjar pranowo ignatius jonan dll sy berjoget dangdut utk pengumpulan dana pendidi</t>
+          <t>inna lillah wa inna ilaihi rajiun telah wafat letjen purn sayidiman suryohadiprodjo dlm usia thn saat thn</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['thn', 'bersama', 'dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dll', 'sy', 'berjoget', 'dangdut', 'utk', 'pengumpulan', 'dana', 'pendidi']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'telah', 'wafat', 'letjen', 'purn', 'sayidiman', 'suryohadiprodjo', 'dlm', 'usia', 'thn', 'saat', 'thn']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'telah', 'wafat', 'letnan, jenderal', 'purna', 'sayidiman', 'suryohadiprodjo', 'dalam', 'usia', 'tahun', 'saat', 'tahun']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['thn', 'dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dll', 'sy', 'berjoget', 'dangdut', 'pengumpulan', 'dana', 'pendidi']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['thn', 'dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dll', 'sy', 'joget', 'dangdut', 'kumpul', 'dana', 'pendidi']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafat', 'letnan, jenderal', 'purna', 'sayidiman', 'suryohadiprodjo', 'usia']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafat', 'letnan jenderal', 'purna', 'sayidiman', 'suryohadiprodjo', 'usia']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17992</v>
+        <v>30296</v>
       </c>
       <c r="C50" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>berdasar komunikasi dgn keluarga syekh ali jaber alhamdulillah syekh semakin membaik keadaannya tdk terlalu meng</t>
+          <t>presiden jg meminta kahmi trs berkhidzmah membangun integrasi keislaman dan kebangsaan dlm kerangka islam wasathiyy</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['berdasar', 'komunikasi', 'dgn', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'semakin', 'membaik', 'keadaannya', 'tdk', 'terlalu', 'meng']</t>
+          <t>['presiden', 'jg', 'meminta', 'kahmi', 'trs', 'berkhidzmah', 'membangun', 'integrasi', 'keislaman', 'dan', 'kebangsaan', 'dlm', 'kerangka', 'islam', 'wasathiyy']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['presiden', 'juga', 'meminta', 'kahmi', 'terus', 'berkhidzmah', 'membangun', 'integrasi', 'keislaman', 'dan', 'kebangsaan', 'dalam', 'kerangka', 'islam', 'wasathiyy']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['berdasar', 'komunikasi', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'membaik', 'keadaannya', 'meng']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['dasar', 'komunikasi', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'baik', 'ada', 'meng']</t>
+          <t>['presiden', 'kahmi', 'berkhidzmah', 'membangun', 'integrasi', 'keislaman', 'kebangsaan', 'kerangka', 'islam', 'wasathiyy']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['presiden', 'kahmi', 'berkhidzmah', 'bangun', 'integrasi', 'islam', 'bangsa', 'kerangka', 'islam', 'wasathiyy']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17993</v>
+        <v>30297</v>
       </c>
       <c r="C51" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>inna lillah wa inna ilaihi rajiun baru nonton pemakaman habib jakfar alkaff lewat tv terkenang saat bersilaturr</t>
+          <t>jam siang ini presiden jokowi membuka rakernas iii korps alumni himpunan mahasiswa islam kahmi presiden me</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'baru', 'nonton', 'pemakaman', 'habib', 'jakfar', 'alkaff', 'lewat', 'tv', 'terkenang', 'saat', 'bersilaturr']</t>
+          <t>['jam', 'siang', 'ini', 'presiden', 'jokowi', 'membuka', 'rakernas', 'iii', 'korps', 'alumni', 'himpunan', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['jam', 'siang', 'ini', 'presiden', 'jokowi', 'membuka', 'rakernas', 'iii', 'korps', 'alumni', 'himpunan', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'nonton', 'pemakaman', 'habib', 'jakfar', 'alkaff', 'tv', 'terkenang', 'bersilaturr']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'nonton', 'makam', 'habib', 'jakfar', 'alkaff', 'tv', 'kenang', 'bersilaturr']</t>
+          <t>['jam', 'siang', 'presiden', 'jokowi', 'membuka', 'rakernas', 'iii', 'korps', 'alumni', 'himpunan', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['jam', 'siang', 'presiden', 'jokowi', 'buka', 'rakernas', 'iii', 'korps', 'alumni', 'himpun', 'mahasiswa', 'islam', 'kahmi', 'presiden', 'me']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17994</v>
+        <v>30298</v>
       </c>
       <c r="C52" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">sdh sy tanya barusan ke polri katanya peristiwa chat terjadi disidik tapi kemudian disp saat mrs ada di </t>
+          <t>ada istilah pemberian yg berbeda shadaqah sedekah risywah suapkorupsi hadiyyah hadiah nabi sendiri meno</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['sdh', 'sy', 'tanya', 'barusan', 'ke', 'polri', 'katanya', 'peristiwa', 'chat', 'terjadi', 'disidik', 'tapi', 'kemudian', 'disp', 'saat', 'mrs', 'ada', 'di']</t>
+          <t>['ada', 'istilah', 'pemberian', 'yg', 'berbeda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'sendiri', 'meno']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['ada', 'istilah', 'pemberian', 'yang', 'berbeda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'sendiri', 'meno']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['sy', 'barusan', 'polri', 'peristiwa', 'chat', 'disidik', 'disp', 'mrs']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['sy', 'barusan', 'polri', 'peristiwa', 'chat', 'sidik', 'disp', 'mrs']</t>
+          <t>['istilah', 'pemberian', 'berbeda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'meno']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['istilah', 'beri', 'beda', 'shadaqah', 'sedekah', 'risywah', 'suapkorupsi', 'hadiyyah', 'hadiah', 'nabi', 'meno']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17995</v>
+        <v>30299</v>
       </c>
       <c r="C53" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">kita tunggu proses di polisi saja kan ada orang pra peradilan dikabulkan oleh hakim saya tak ngikuti kasus ini </t>
+          <t>kalau ke rmh syech ali jaber sy diajak makan nasi bukhori kebuli khas arab dan duren kalau beliau ke rmh sy mak</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['kita', 'tunggu', 'proses', 'di', 'polisi', 'saja', 'kan', 'ada', 'orang', 'pra', 'peradilan', 'dikabulkan', 'oleh', 'hakim', 'saya', 'tak', 'ngikuti', 'kasus', 'ini']</t>
+          <t>['kalau', 'ke', 'rmh', 'syech', 'ali', 'jaber', 'sy', 'diajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'dan', 'duren', 'kalau', 'beliau', 'ke', 'rmh', 'sy', 'mak']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kalau', 'ke', 'rumah', 'syech', 'ali', 'jaber', 'saya', 'diajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'dan', 'duren', 'kalau', 'beliau', 'ke', 'rumah', 'saya', 'mak']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['tunggu', 'proses', 'polisi', 'orang', 'pra', 'peradilan', 'dikabulkan', 'hakim', 'ngikuti']</t>
+          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['tunggu', 'proses', 'polisi', 'orang', 'pra', 'adil', 'kabul', 'hakim', 'ngikuti']</t>
+          <t>['rumah', 'syech', 'ali', 'jaber', 'diajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'duren', 'beliau', 'rumah', 'mak']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['rumah', 'syech', 'ali', 'jaber', 'ajak', 'makan', 'nasi', 'bukhori', 'kebuli', 'khas', 'arab', 'duren', 'beliau', 'rumah', 'mak']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17996</v>
+        <v>30300</v>
       </c>
       <c r="C54" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>andi arief itu junior saya di kampus biru ugm yogya</t>
+          <t>bbrp hr sblm diberitakan terinfeksi covid syekh ali jaber ke rmh sy menghadiahi tasbih kurma pilihan buku doa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['andi', 'arief', 'itu', 'junior', 'saya', 'di', 'kampus', 'biru', 'ugm', 'yogya']</t>
+          <t>['bbrp', 'hr', 'sblm', 'diberitakan', 'terinfeksi', 'covid', 'syekh', 'ali', 'jaber', 'ke', 'rmh', 'sy', 'menghadiahi', 'tasbih', 'kurma', 'pilihan', 'buku', 'doa']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['beberapa', 'hari', 'sebelum', 'diberitakan', 'terinfeksi', 'covid', 'syekh', 'ali', 'jaber', 'ke', 'rumah', 'saya', 'menghadiahi', 'tasbih', 'kurma', 'pilihan', 'buku', 'doa']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['andi', 'arief', 'junior', 'kampus', 'biru', 'ugm', 'yogya']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['andi', 'arief', 'junior', 'kampus', 'biru', 'ugm', 'yogya']</t>
+          <t>['diberitakan', 'terinfeksi', 'covid', 'syekh', 'ali', 'jaber', 'rumah', 'menghadiahi', 'tasbih', 'kurma', 'pilihan', 'buku', 'doa']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['berita', 'infeksi', 'covid', 'syekh', 'ali', 'jaber', 'rumah', 'hadiah', 'tasbih', 'kurma', 'pilih', 'buku', 'doa']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17997</v>
+        <v>30301</v>
       </c>
       <c r="C55" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>jenderal tua yg mana dinda bnyk jenderal senior yg sering berdiskusi dgn sy spt pak sby pak prabowo pak lbp pa</t>
+          <t>inna lillah wa inna ilaihi rajiun kita kehilangan tokoh penyejuk dan pemersatu ummat ulama besar syech ali jaber</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['jenderal', 'tua', 'yg', 'mana', 'dinda', 'bnyk', 'jenderal', 'senior', 'yg', 'sering', 'berdiskusi', 'dgn', 'sy', 'spt', 'pak', 'sby', 'pak', 'prabowo', 'pak', 'lbp', 'pa']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'tokoh', 'penyejuk', 'dan', 'pemersatu', 'ummat', 'ulama', 'besar', 'syech', 'ali', 'jaber']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'kita', 'kehilangan', 'tokoh', 'penyejuk', 'dan', 'pemersatu', 'umat', 'ulama', 'besar', 'syech', 'ali', 'jaber']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['jenderal', 'tua', 'dinda', 'bnyk', 'jenderal', 'senior', 'berdiskusi', 'sy', 'spt', 'sby', 'prabowo', 'lbp', 'pa']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['jenderal', 'tua', 'dinda', 'bnyk', 'jenderal', 'senior', 'diskus', 'sy', 'spt', 'sby', 'prabowo', 'lbp', 'pa']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'kehilangan', 'tokoh', 'penyejuk', 'pemersatu', 'umat', 'ulama', 'syech', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'hilang', 'tokoh', 'sejuk', 'satu', 'umat', 'ulama', 'syech', 'ali', 'jaber']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17998</v>
+        <v>30302</v>
       </c>
       <c r="C56" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">skrng ini ada ada tdk kurang dari ormas dan ratusan partai politik jg tak dilarang mau mendirikan front </t>
+          <t>tdk jg kalau kahmi trs sy lbh sering silaturrahim dgn presiden bersama mui nu muhammadiyah pkub dll juga ber</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['skrng', 'ini', 'ada', 'ada', 'tdk', 'kurang', 'dari', 'ormas', 'dan', 'ratusan', 'partai', 'politik', 'jg', 'tak', 'dilarang', 'mau', 'mendirikan', 'front']</t>
+          <t>['tdk', 'jg', 'kalau', 'kahmi', 'trs', 'sy', 'lbh', 'sering', 'silaturrahim', 'dgn', 'presiden', 'bersama', 'mui', 'nu', 'muhammadiyah', 'pkub', 'dll', 'juga', 'ber']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tidak', 'juga', 'kalau', 'kahmi', 'terus', 'saya', 'lebih', 'sering', 'silaturrahim', 'dengan', 'presiden', 'bersama', 'majelis, ulama, indonesia', 'nu', 'muhammadiyah', 'pkub', 'dan, lain, lain', 'juga', 'ber']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['skrng', 'ormas', 'ratusan', 'partai', 'politik', 'jg', 'dilarang', 'mendirikan', 'front']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['skrng', 'ormas', 'ratus', 'partai', 'politik', 'jg', 'larang', 'diri', 'front']</t>
+          <t>['kahmi', 'silaturrahim', 'presiden', 'majelis, ulama, indonesia', 'nu', 'muhammadiyah', 'pkub', 'dan, lain, lain', 'ber']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['kahmi', 'silaturrahim', 'presiden', 'majelis ulama indonesia', 'nu', 'muhammadiyah', 'pkub', 'dan lain lain', 'ber']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17999</v>
+        <v>30303</v>
       </c>
       <c r="C57" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>dulu pni berfusi dan bubar kemudian melahirkan pdi pdip pnbk jg boleh dulu nu pecah sampai melahirkan kppnu jg</t>
+          <t>bersama mensesneg prof pratikno pagi ini saya menemani teman presidium majelis nasional korps alumni</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['dulu', 'pni', 'berfusi', 'dan', 'bubar', 'kemudian', 'melahirkan', 'pdi', 'pdip', 'pnbk', 'jg', 'boleh', 'dulu', 'nu', 'pecah', 'sampai', 'melahirkan', 'kppnu', 'jg']</t>
+          <t>['bersama', 'mensesneg', 'prof', 'pratikno', 'pagi', 'ini', 'saya', 'menemani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['bersama', 'menteri, sekretaris, negara', 'prof', 'pratikno', 'pagi', 'ini', 'saya', 'menemani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['pni', 'berfusi', 'bubar', 'melahirkan', 'pdi', 'pdip', 'pnbk', 'jg', 'nu', 'pecah', 'melahirkan', 'kppnu', 'jg']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['pni', 'fusi', 'bubar', 'lahir', 'pdi', 'pdip', 'pnbk', 'jg', 'nu', 'pecah', 'lahir', 'kppnu', 'jg']</t>
+          <t>['menteri, sekretaris, negara', 'prof', 'pratikno', 'pagi', 'menemani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['menteri sekretaris negara', 'prof', 'pratikno', 'pagi', 'tani', 'teman', 'presidium', 'majelis', 'nasional', 'korps', 'alumni']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>18000</v>
+        <v>30304</v>
       </c>
       <c r="C58" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ada yg tanya bolehkah org mendirikan front pejuang islam blh sh asal tak melanggar hukum dan tak mengganggu kete</t>
+          <t>cara khas yg sering dilakukan presiden dlm memilih pejabat meminta dibuatkan draf surat pengusulan yg berisi nam</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['ada', 'yg', 'tanya', 'bolehkah', 'org', 'mendirikan', 'front', 'pejuang', 'islam', 'blh', 'sh', 'asal', 'tak', 'melanggar', 'hukum', 'dan', 'tak', 'mengganggu', 'kete']</t>
+          <t>['cara', 'khas', 'yg', 'sering', 'dilakukan', 'presiden', 'dlm', 'memilih', 'pejabat', 'meminta', 'dibuatkan', 'draf', 'surat', 'pengusulan', 'yg', 'berisi', 'nam']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['cara', 'khas', 'yang', 'sering', 'dilakukan', 'presiden', 'dalam', 'memilih', 'pejabat', 'meminta', 'dibuatkan', 'draf', 'surat', 'pengusulan', 'yang', 'berisi', 'nama']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['org', 'mendirikan', 'front', 'pejuang', 'islam', 'blh', 'sh', 'melanggar', 'hukum', 'mengganggu', 'kete']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['org', 'diri', 'front', 'juang', 'islam', 'blh', 'sh', 'langgar', 'hukum', 'ganggu', 'kete']</t>
+          <t>['khas', 'presiden', 'memilih', 'pejabat', 'dibuatkan', 'draf', 'surat', 'pengusulan', 'berisi', 'nama']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['khas', 'presiden', 'pilih', 'jabat', 'buat', 'draf', 'surat', 'usul', 'isi', 'nama']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18001</v>
+        <v>30305</v>
       </c>
       <c r="C59" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">kita tunggu proposal dari masyarakat bgmn mengambil hgu yg diperoleh scr sah pasalnya yg sdh diperoleh scr sah </t>
+          <t>nama calon kapolri yg beredar di media skrng msh tebak buah nangka alias spekulasi smpai saat ini presiden blm me</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['kita', 'tunggu', 'proposal', 'dari', 'masyarakat', 'bgmn', 'mengambil', 'hgu', 'yg', 'diperoleh', 'scr', 'sah', 'pasalnya', 'yg', 'sdh', 'diperoleh', 'scr', 'sah']</t>
+          <t>['nama', 'calon', 'kapolri', 'yg', 'beredar', 'di', 'media', 'skrng', 'msh', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'smpai', 'saat', 'ini', 'presiden', 'blm', 'me']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['nama', 'calon', 'kepala, kepolisian, republik, indonesia', 'yang', 'beredar', 'di', 'media', 'sekarang', 'masih', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'sampai', 'saat', 'ini', 'presiden', 'belum', 'me']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['tunggu', 'proposal', 'masyarakat', 'bgmn', 'mengambil', 'hgu', 'diperoleh', 'scr', 'sah', 'pasalnya', 'diperoleh', 'scr', 'sah']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['tunggu', 'proposal', 'masyarakat', 'bgmn', 'ambil', 'hgu', 'oleh', 'scr', 'sah', 'pasal', 'oleh', 'scr', 'sah']</t>
+          <t>['nama', 'calon', 'kepala, kepolisian, republik, indonesia', 'beredar', 'media', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'presiden', 'me']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['nama', 'calon', 'kepala polisi republik indonesia', 'edar', 'media', 'tebak', 'buah', 'nangka', 'alias', 'spekulasi', 'presiden', 'me']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18002</v>
+        <v>30306</v>
       </c>
       <c r="C60" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>memang bgt bc beritanya bkn hny judulnya sy mengatakan bhw mslh hukumnya hrs selesaikan dulu apakah tanah milik</t>
+          <t>pd zaman orba ada yayasan supersemar yg dibentuk oleh presiden soeharto yg memberi beasiswa kpd pelajar amp mhs yg ku</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['memang', 'bgt', 'bc', 'beritanya', 'bkn', 'hny', 'judulnya', 'sy', 'mengatakan', 'bhw', 'mslh', 'hukumnya', 'hrs', 'selesaikan', 'dulu', 'apakah', 'tanah', 'milik']</t>
+          <t>['pd', 'zaman', 'orba', 'ada', 'yayasan', 'supersemar', 'yg', 'dibentuk', 'oleh', 'presiden', 'soeharto', 'yg', 'memberi', 'beasiswa', 'kpd', 'pelajar', 'amp', 'mhs', 'yg', 'ku']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['pada', 'zaman', 'orde, baru', 'ada', 'yayasan', 'supersemar', 'yang', 'dibentuk', 'oleh', 'presiden', 'soeharto', 'yang', 'memberi', 'beasiswa', 'kepada', 'pelajar', 'amp', 'mahasiswa', 'yang', 'ku']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['bgt', 'bc', 'beritanya', 'bkn', 'hny', 'judulnya', 'sy', 'bhw', 'mslh', 'hukumnya', 'hrs', 'selesaikan', 'tanah', 'milik']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['bgt', 'bc', 'berita', 'bkn', 'hny', 'judul', 'sy', 'bhw', 'mslh', 'hukum', 'hrs', 'selesai', 'tanah', 'milik']</t>
+          <t>['zaman', 'orde, baru', 'yayasan', 'supersemar', 'dibentuk', 'presiden', 'soeharto', 'beasiswa', 'pelajar', 'mahasiswa', 'ku']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['zaman', 'orde baru', 'yayasan', 'supersemar', 'bentuk', 'presiden', 'soeharto', 'beasiswa', 'ajar', 'mahasiswa', 'ku']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18003</v>
+        <v>30307</v>
       </c>
       <c r="C61" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>usul anda itu memang cara yg paling realistis masalahnya bs langsung selesai dgn mengatakan ya sudah itu kan du</t>
+          <t>turut berduka inna lillah wa inna ilaihi rajiun atas wafatnya  suaib didu selain sbg adik kandung sahabat kar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['usul', 'anda', 'itu', 'memang', 'cara', 'yg', 'paling', 'realistis', 'masalahnya', 'bs', 'langsung', 'selesai', 'dgn', 'mengatakan', 'ya', 'sudah', 'itu', 'kan', 'du']</t>
+          <t>['turut', 'berduka', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'atas', 'wafatnya', 'suaib', 'didu', 'selain', 'sbg', 'adik', 'kandung', 'sahabat', 'kar']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['turut', 'berduka', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'atas', 'wafatnya', 'suaib', 'didu', 'selain', 'sebagai', 'adik', 'kandung', 'sahabat', 'kar']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['usul', 'realistis', 'bs', 'langsung', 'selesai', 'du']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['usul', 'realistis', 'bs', 'langsung', 'selesai', 'du']</t>
+          <t>['berduka', 'inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafatnya', 'suaib', 'didu', 'adik', 'kandung', 'sahabat', 'kar']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['duka', 'inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'wafat', 'suaib', 'didu', 'adik', 'kandung', 'sahabat', 'kar']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>18004</v>
+        <v>30308</v>
       </c>
       <c r="C62" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt justeru ini kita sedang ambil langkah bkn curhat tapi menginformasikan betapa rumitnya kita trs berusaha utk</t>
+          <t>ini nama komjen pol yg diajukan kpd presiden oleh kompolnas utk dipilih sbg calon kapolri gatot edy pramono</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'justeru', 'ini', 'kita', 'sedang', 'ambil', 'langkah', 'bkn', 'curhat', 'tapi', 'menginformasikan', 'betapa', 'rumitnya', 'kita', 'trs', 'berusaha', 'utk']</t>
+          <t>['ini', 'nama', 'komjen', 'pol', 'yg', 'diajukan', 'kpd', 'presiden', 'oleh', 'kompolnas', 'utk', 'dipilih', 'sbg', 'calon', 'kapolri', 'gatot', 'edy', 'pramono']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['ini', 'nama', 'komjen', 'pol', 'yang', 'diajukan', 'kepada', 'presiden', 'oleh', 'kompolnas', 'untuk', 'dipilih', 'sebagai', 'calon', 'kepala, kepolisian, republik, indonesia', 'gatot', 'edy', 'pramono']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['justeru', 'ambil', 'langkah', 'bkn', 'curhat', 'menginformasikan', 'betapa', 'rumitnya', 'trs', 'berusaha']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['justeru', 'ambil', 'langkah', 'bkn', 'curhat', 'informasi', 'betapa', 'rumit', 'trs', 'usaha']</t>
+          <t>['nama', 'komjen', 'pol', 'diajukan', 'presiden', 'kompolnas', 'dipilih', 'calon', 'kepala, kepolisian, republik, indonesia', 'gatot', 'edy', 'pramono']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['nama', 'komjen', 'pol', 'aju', 'presiden', 'kompolnas', 'pilih', 'calon', 'kepala polisi republik indonesia', 'gatot', 'edy', 'pramono']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18005</v>
+        <v>30309</v>
       </c>
       <c r="C63" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>justeru ini kita sedang ambil langkah bkn curhat tapi menginformasikan betapa rumitnya kita trs berusa</t>
+          <t>mengonfirmasi berbagai berita benar penjelasan pak benny mamoto dan pak wahyudanto dari kompolnas bhw selaku ketua</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['justeru', 'ini', 'kita', 'sedang', 'ambil', 'langkah', 'bkn', 'curhat', 'tapi', 'menginformasikan', 'betapa', 'rumitnya', 'kita', 'trs', 'berusa']</t>
+          <t>['mengonfirmasi', 'berbagai', 'berita', 'benar', 'penjelasan', 'pak', 'benny', 'mamoto', 'dan', 'pak', 'wahyudanto', 'dari', 'kompolnas', 'bhw', 'selaku', 'ketua']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['mengonfirmasi', 'berbagai', 'berita', 'benar', 'penjelasan', 'pak', 'benny', 'mamoto', 'dan', 'pak', 'wahyudanto', 'dari', 'kompolnas', 'bahwa', 'selaku', 'ketua']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['justeru', 'ambil', 'langkah', 'bkn', 'curhat', 'menginformasikan', 'betapa', 'rumitnya', 'trs', 'berusa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['justeru', 'ambil', 'langkah', 'bkn', 'curhat', 'informasi', 'betapa', 'rumit', 'trs', 'rusa']</t>
+          <t>['mengonfirmasi', 'berita', 'penjelasan', 'benny', 'mamoto', 'wahyudanto', 'kompolnas', 'ketua']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['konfirmasi', 'berita', 'jelas', 'benny', 'mamoto', 'wahyudanto', 'kompolnas', 'ketua']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18006</v>
+        <v>30310</v>
       </c>
       <c r="C64" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>sy dpt kiriman daftar group penguasa tanah hgu yg setiap group menguasai smpai ratusan ribu hektar ini gila pengu</t>
+          <t>inilah dilemma jika demokrasi terlalu longgar maka integrasi terganggu jika integrasi terlalu ditonjolkan maka de</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['sy', 'dpt', 'kiriman', 'daftar', 'group', 'penguasa', 'tanah', 'hgu', 'yg', 'setiap', 'group', 'menguasai', 'smpai', 'ratusan', 'ribu', 'hektar', 'ini', 'gila', 'pengu']</t>
+          <t>['inilah', 'dilemma', 'jika', 'demokrasi', 'terlalu', 'longgar', 'maka', 'integrasi', 'terganggu', 'jika', 'integrasi', 'terlalu', 'ditonjolkan', 'maka', 'de']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['inilah', 'dilemma', 'jika', 'demokrasi', 'terlalu', 'longgar', 'maka', 'integrasi', 'terganggu', 'jika', 'integrasi', 'terlalu', 'ditonjolkan', 'maka', 'deh']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['sy', 'dpt', 'kiriman', 'daftar', 'group', 'penguasa', 'tanah', 'hgu', 'group', 'menguasai', 'smpai', 'ratusan', 'ribu', 'hektar', 'gila', 'pengu']</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['sy', 'dpt', 'kirim', 'daftar', 'group', 'kuasa', 'tanah', 'hgu', 'group', 'kuasa', 'smpai', 'ratus', 'ribu', 'hektar', 'gila', 'pengu']</t>
+          <t>['dilemma', 'demokrasi', 'longgar', 'integrasi', 'terganggu', 'integrasi', 'ditonjolkan', 'deh']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['dilemma', 'demokrasi', 'longgar', 'integrasi', 'ganggu', 'integrasi', 'tonjol', 'deh']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18007</v>
+        <v>30311</v>
       </c>
       <c r="C65" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jika kami sedang di yogya yunior sy dari ugm eddy hiariej dan zaenal arifin uceng mochtar selalu ngajak ngob</t>
+          <t>betul mas mamun kmrn ada yg upload katanya sy joget tanpa masker senang lht itu krn membawa ke nostalgia waktu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['jika', 'kami', 'sedang', 'di', 'yogya', 'yunior', 'sy', 'dari', 'ugm', 'eddy', 'hiariej', 'dan', 'zaenal', 'arifin', 'uceng', 'mochtar', 'selalu', 'ngajak', 'ngob']</t>
+          <t>['betul', 'mas', 'mamun', 'kmrn', 'ada', 'yg', 'upload', 'katanya', 'sy', 'joget', 'tanpa', 'masker', 'senang', 'lht', 'itu', 'krn', 'membawa', 'ke', 'nostalgia', 'waktu']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['betul', 'mas', 'mamun', 'kemarin', 'ada', 'yang', 'unggah', 'katanya', 'saya', 'joget', 'tanpa', 'masker', 'senang', 'lihat', 'itu', 'karena', 'membawa', 'ke', 'nostalgia', 'waktu']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['yogya', 'yunior', 'sy', 'ugm', 'eddy', 'hiariej', 'zaenal', 'arifin', 'uceng', 'mochtar', 'ngajak', 'ngob']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['yogya', 'yunior', 'sy', 'ugm', 'eddy', 'hiariej', 'zaenal', 'arifin', 'uceng', 'mochtar', 'ngajak', 'ngob']</t>
+          <t>['mas', 'mamun', 'kemarin', 'unggah', 'joget', 'masker', 'senang', 'lihat', 'membawa', 'nostalgia']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['mas', 'mamun', 'kemarin', 'unggah', 'joget', 'masker', 'senang', 'lihat', 'bawa', 'nostalgia']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18008</v>
+        <v>30312</v>
       </c>
       <c r="C66" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>aljannatu tahta aqdaamil ummahaat surga itu di telapak kaki ibu sepak terjang seorang ibu akan menentukan masa</t>
+          <t>thn bersama dahlan iskan ganjar pranowo ignatius jonan dll sy berjoget dangdut utk pengumpulan dana pendidi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'itu', 'di', 'telapak', 'kaki', 'ibu', 'sepak', 'terjang', 'seorang', 'ibu', 'akan', 'menentukan', 'masa']</t>
+          <t>['thn', 'bersama', 'dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dll', 'sy', 'berjoget', 'dangdut', 'utk', 'pengumpulan', 'dana', 'pendidi']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tahun', 'bersama', 'dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dan, lain, lain', 'saya', 'berjoget', 'dangdut', 'untuk', 'pengumpulan', 'dana', 'pendidi']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'telapak', 'kaki', 'sepak', 'terjang', 'menentukan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'telapak', 'kaki', 'sepak', 'terjang', 'tentu']</t>
+          <t>['dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dan, lain, lain', 'berjoget', 'dangdut', 'pengumpulan', 'dana', 'pendidi']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['dahlan', 'iskan', 'ganjar', 'pranowo', 'ignatius', 'jonan', 'dan lain lain', 'joget', 'dangdut', 'kumpul', 'dana', 'pendidi']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18009</v>
+        <v>30313</v>
       </c>
       <c r="C67" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>kak dhaifah ibu dari ponakanku sdh wafat tgl akhir pekan kemarin thn sesuai dgn doanya ingin menin</t>
+          <t>berdasar komunikasi dgn keluarga syekh ali jaber alhamdulillah syekh semakin membaik keadaannya tdk terlalu meng</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kak', 'dhaifah', 'ibu', 'dari', 'ponakanku', 'sdh', 'wafat', 'tgl', 'akhir', 'pekan', 'kemarin', 'thn', 'sesuai', 'dgn', 'doanya', 'ingin', 'menin']</t>
+          <t>['berdasar', 'komunikasi', 'dgn', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'semakin', 'membaik', 'keadaannya', 'tdk', 'terlalu', 'meng']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['berdasar', 'komunikasi', 'dengan', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'semakin', 'membaik', 'keadaannya', 'tidak', 'terlalu', 'meng']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kak', 'dhaifah', 'ponakanku', 'wafat', 'tgl', 'pekan', 'kemarin', 'thn', 'sesuai', 'doanya', 'menin']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['kak', 'dhaifah', 'ponakan', 'wafat', 'tgl', 'pekan', 'kemarin', 'thn', 'sesuai', 'doa', 'tin']</t>
+          <t>['berdasar', 'komunikasi', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'membaik', 'keadaannya', 'meng']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['dasar', 'komunikasi', 'keluarga', 'syekh', 'ali', 'jaber', 'alhamdulillah', 'syekh', 'baik', 'ada', 'meng']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18010</v>
+        <v>30314</v>
       </c>
       <c r="C68" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>dua ibu di dekatku ibuku siti khadijah kanan lulus sd sj tidak bisanya hanya bc quran dan salat kakakku dhaif</t>
+          <t>inna lillah wa inna ilaihi rajiun baru nonton pemakaman habib jakfar alkaff lewat tv terkenang saat bersilaturr</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['dua', 'ibu', 'di', 'dekatku', 'ibuku', 'siti', 'khadijah', 'kanan', 'lulus', 'sd', 'sj', 'tidak', 'bisanya', 'hanya', 'bc', 'quran', 'dan', 'salat', 'kakakku', 'dhaif']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'baru', 'nonton', 'pemakaman', 'habib', 'jakfar', 'alkaff', 'lewat', 'tv', 'terkenang', 'saat', 'bersilaturr']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'baru', 'menonton', 'pemakaman', 'habib', 'jakfar', 'alkaff', 'lewat', 'televisi', 'terkenang', 'saat', 'bersilaturr']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['dekatku', 'ibuku', 'siti', 'khadijah', 'kanan', 'lulus', 'sd', 'sj', 'bisanya', 'bc', 'quran', 'salat', 'kakakku', 'dhaif']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['dekat', 'ibu', 'siti', 'khadijah', 'kanan', 'lulus', 'sd', 'sj', 'bisa', 'bc', 'quran', 'salat', 'kakak', 'dhaif']</t>
+          <t>['inna', 'lillah', 'wa', 'inna', 'ilaihi', 'rajiun', 'menonton', 'pemakaman', 'habib', 'jakfar', 'alkaff', 'televisi', 'terkenang', 'bersilaturr']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['inna', 'lil', 'wa', 'inna', 'ilaihi', 'rajiun', 'tonton', 'makam', 'habib', 'jakfar', 'alkaff', 'televisi', 'kenang', 'bersilaturr']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18011</v>
+        <v>30315</v>
       </c>
       <c r="C69" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>setuju mas alaidid tak ada yg tahu wajah rasul krn tak ada tak boleh ada lukisan dirinya itu bagian da</t>
+          <t xml:space="preserve">sdh sy tanya barusan ke polri katanya peristiwa chat terjadi disidik tapi kemudian disp saat mrs ada di </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['setuju', 'mas', 'alaidid', 'tak', 'ada', 'yg', 'tahu', 'wajah', 'rasul', 'krn', 'tak', 'ada', 'tak', 'boleh', 'ada', 'lukisan', 'dirinya', 'itu', 'bagian', 'da']</t>
+          <t>['sdh', 'sy', 'tanya', 'barusan', 'ke', 'polri', 'katanya', 'peristiwa', 'chat', 'terjadi', 'disidik', 'tapi', 'kemudian', 'disp', 'saat', 'mrs', 'ada', 'di']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
+          <t>['sudah', 'saya', 'tanya', 'barusan', 'ke', 'kepolisian, republik, indonesia', 'katanya', 'peristiwa', 'chat', 'terjadi', 'disidik', 'tapi', 'kemudian', 'disp', 'saat', 'mrs', 'ada', 'di']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['setuju', 'mas', 'alaidid', 'wajah', 'rasul', 'lukisan', 'da']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['tuju', 'mas', 'alaidid', 'wajah', 'rasul', 'lukis', 'da']</t>
+          <t>['barusan', 'kepolisian, republik, indonesia', 'peristiwa', 'chat', 'disidik', 'disp', 'mrs']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['barusan', 'polisi republik indonesia', 'peristiwa', 'chat', 'sidik', 'disp', 'mrs']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18012</v>
+        <v>30316</v>
       </c>
       <c r="C70" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ini lagi pengumuman bhw mnrt menko polhukam kepulangan hrs adalah hak yang harus dilindungi</t>
+          <t xml:space="preserve">kita tunggu proses di polisi saja kan ada orang pra peradilan dikabulkan oleh hakim saya tak ngikuti kasus ini </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['ini', 'lagi', 'pengumuman', 'bhw', 'mnrt', 'menko', 'polhukam', 'kepulangan', 'hrs', 'adalah', 'hak', 'yang', 'harus', 'dilindungi']</t>
+          <t>['kita', 'tunggu', 'proses', 'di', 'polisi', 'saja', 'kan', 'ada', 'orang', 'pra', 'peradilan', 'dikabulkan', 'oleh', 'hakim', 'saya', 'tak', 'ngikuti', 'kasus', 'ini']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kita', 'tunggu', 'proses', 'di', 'polisi', 'saja', 'kan', 'ada', 'orang', 'pra', 'peradilan', 'dikabulkan', 'oleh', 'hakim', 'saya', 'tak', 'ngikuti', 'kasus', 'ini']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['pengumuman', 'bhw', 'mnrt', 'menko', 'polhukam', 'kepulangan', 'hrs', 'hak', 'dilindungi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['umum', 'bhw', 'mnrt', 'menko', 'polhukam', 'pulang', 'hrs', 'hak', 'lindung']</t>
+          <t>['tunggu', 'proses', 'polisi', 'orang', 'pra', 'peradilan', 'dikabulkan', 'hakim', 'ngikuti']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['tunggu', 'proses', 'polisi', 'orang', 'pra', 'adil', 'kabul', 'hakim', 'ngikuti']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18013</v>
+        <v>30317</v>
       </c>
       <c r="C71" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>kang rk ini pengumuman sy ttg kepulangan hrs clear ada syarat tertib dan ikut protokol kesehatan lewat</t>
+          <t>andi arief itu junior saya di kampus biru ugm yogya</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['kang', 'rk', 'ini', 'pengumuman', 'sy', 'ttg', 'kepulangan', 'hrs', 'clear', 'ada', 'syarat', 'tertib', 'dan', 'ikut', 'protokol', 'kesehatan', 'lewat']</t>
+          <t>['andi', 'arief', 'itu', 'junior', 'saya', 'di', 'kampus', 'biru', 'ugm', 'yogya']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['andi', 'arief', 'itu', 'junior', 'saya', 'di', 'kampus', 'biru', 'ugm', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['kang', 'rk', 'pengumuman', 'sy', 'ttg', 'kepulangan', 'hrs', 'clear', 'syarat', 'tertib', 'protokol', 'kesehatan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['kang', 'rk', 'umum', 'sy', 'ttg', 'pulang', 'hrs', 'clear', 'syarat', 'tertib', 'protokol', 'sehat']</t>
+          <t>['andi', 'arief', 'junior', 'kampus', 'biru', 'ugm', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['andi', 'arief', 'junior', 'kampus', 'biru', 'ugm', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18014</v>
+        <v>30318</v>
       </c>
       <c r="C72" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">diskresi pemerintah diberikan utk penjemputan pengamanan dan pengantaran dari bandara sampai ke petamburan itu </t>
+          <t>jenderal tua yg mana dinda bnyk jenderal senior yg sering berdiskusi dgn sy spt pak sby pak prabowo pak lbp pa</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['diskresi', 'pemerintah', 'diberikan', 'utk', 'penjemputan', 'pengamanan', 'dan', 'pengantaran', 'dari', 'bandara', 'sampai', 'ke', 'petamburan', 'itu']</t>
+          <t>['jenderal', 'tua', 'yg', 'mana', 'dinda', 'bnyk', 'jenderal', 'senior', 'yg', 'sering', 'berdiskusi', 'dgn', 'sy', 'spt', 'pak', 'sby', 'pak', 'prabowo', 'pak', 'lbp', 'pa']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['jenderal', 'tua', 'yang', 'mana', 'dinda', 'banyak', 'jenderal', 'senior', 'yang', 'sering', 'berdiskusi', 'dengan', 'saya', 'surat, pemberitahuan, tahunan', 'pak', 'susilo, bambang, yudhoyono', 'pak', 'prabowo', 'pak', 'low, back, pain', 'pak']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['diskresi', 'pemerintah', 'penjemputan', 'pengamanan', 'pengantaran', 'bandara', 'petamburan']</t>
+          <t>&lt;FreqDist with 16 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['diskresi', 'perintah', 'jemput', 'aman', 'antar', 'bandara', 'tambur']</t>
+          <t>['jenderal', 'tua', 'dinda', 'jenderal', 'senior', 'berdiskusi', 'surat, pemberitahuan, tahunan', 'susilo, bambang, yudhoyono', 'prabowo', 'low, back, pain']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['jenderal', 'tua', 'dinda', 'jenderal', 'senior', 'diskus', 'surat pemberitahuan tahun', 'susilo bambang yudhoyono', 'prabowo', 'low back pain']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18015</v>
+        <v>30319</v>
       </c>
       <c r="C73" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>siap kang rk sy bertanggungjawab sy yg umumkan hrs diizinkan pulang ke indonesia krn dia punya hak hukum utk pul</t>
+          <t xml:space="preserve">skrng ini ada ada tdk kurang dari ormas dan ratusan partai politik jg tak dilarang mau mendirikan front </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['siap', 'kang', 'rk', 'sy', 'bertanggungjawab', 'sy', 'yg', 'umumkan', 'hrs', 'diizinkan', 'pulang', 'ke', 'indonesia', 'krn', 'dia', 'punya', 'hak', 'hukum', 'utk', 'pul']</t>
+          <t>['skrng', 'ini', 'ada', 'ada', 'tdk', 'kurang', 'dari', 'ormas', 'dan', 'ratusan', 'partai', 'politik', 'jg', 'tak', 'dilarang', 'mau', 'mendirikan', 'front']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['sekarang', 'ini', 'ada', 'ada', 'tidak', 'kurang', 'dari', 'organisasi, masyarakat', 'dan', 'ratusan', 'partai', 'politik', 'juga', 'tak', 'dilarang', 'mau', 'mendirikan', 'front']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['kang', 'rk', 'sy', 'bertanggungjawab', 'sy', 'umumkan', 'hrs', 'diizinkan', 'pulang', 'indonesia', 'hak', 'hukum', 'pul']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['kang', 'rk', 'sy', 'bertanggungjawab', 'sy', 'umum', 'hrs', 'izin', 'pulang', 'indonesia', 'hak', 'hukum', 'pul']</t>
+          <t>['organisasi, masyarakat', 'ratusan', 'partai', 'politik', 'dilarang', 'mendirikan', 'front']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['organisasi masyarakat', 'ratus', 'partai', 'politik', 'larang', 'diri', 'front']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18016</v>
+        <v>30320</v>
       </c>
       <c r="C74" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>salawat burdah adl bait syair dlm bhs arab yg ditulis oleh imam albushiry ditulis ketika sakit lu</t>
+          <t>dulu pni berfusi dan bubar kemudian melahirkan pdi pdip pnbk jg boleh dulu nu pecah sampai melahirkan kppnu jg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['salawat', 'burdah', 'adl', 'bait', 'syair', 'dlm', 'bhs', 'arab', 'yg', 'ditulis', 'oleh', 'imam', 'albushiry', 'ditulis', 'ketika', 'sakit', 'lu']</t>
+          <t>['dulu', 'pni', 'berfusi', 'dan', 'bubar', 'kemudian', 'melahirkan', 'pdi', 'pdip', 'pnbk', 'jg', 'boleh', 'dulu', 'nu', 'pecah', 'sampai', 'melahirkan', 'kppnu', 'jg']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['dulu', 'partai, nasional, indonesia', 'berfusi', 'dan', 'bubar', 'kemudian', 'melahirkan', 'partai, demokrasi, indonesia', 'partai, demokrasi, indonesia, perjuangan', 'pnbk', 'juga', 'boleh', 'dulu', 'nu', 'pecah', 'sampai', 'melahirkan', 'kppnu', 'juga']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['salawat', 'burdah', 'adl', 'bait', 'syair', 'dlm', 'bhs', 'arab', 'ditulis', 'imam', 'albushiry', 'ditulis', 'sakit', 'lu']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['salawat', 'burdah', 'adl', 'bait', 'syair', 'dlm', 'bhs', 'arab', 'tulis', 'imam', 'albushiry', 'tulis', 'sakit', 'lu']</t>
+          <t>['partai, nasional, indonesia', 'berfusi', 'bubar', 'melahirkan', 'partai, demokrasi, indonesia', 'partai, demokrasi, indonesia, perjuangan', 'pnbk', 'nu', 'pecah', 'melahirkan', 'kppnu']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['partai nasional indonesia', 'fusi', 'bubar', 'lahir', 'partai demokrasi indonesia', 'partai demokrasi indonesia juang', 'pnbk', 'nu', 'pecah', 'lahir', 'kppnu']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18017</v>
+        <v>30321</v>
       </c>
       <c r="C75" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>saat penataran  gus dur gd tidur tiba dibangunkan oleh penatar dan ditanya ttg konsep demokrasi gd sy bar</t>
+          <t>ada yg tanya bolehkah org mendirikan front pejuang islam blh sh asal tak melanggar hukum dan tak mengganggu kete</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['saat', 'penataran', 'gus', 'dur', 'gd', 'tidur', 'tiba', 'dibangunkan', 'oleh', 'penatar', 'dan', 'ditanya', 'ttg', 'konsep', 'demokrasi', 'gd', 'sy', 'bar']</t>
+          <t>['ada', 'yg', 'tanya', 'bolehkah', 'org', 'mendirikan', 'front', 'pejuang', 'islam', 'blh', 'sh', 'asal', 'tak', 'melanggar', 'hukum', 'dan', 'tak', 'mengganggu', 'kete']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['ada', 'yang', 'tanya', 'bolehkah', 'orang', 'mendirikan', 'front', 'pejuang', 'islam', 'boleh', 'sh', 'asal', 'tak', 'melanggar', 'hukum', 'dan', 'tak', 'mengganggu', 'kete']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['penataran', 'gus', 'dur', 'gd', 'tidur', 'dibangunkan', 'penatar', 'ttg', 'konsep', 'demokrasi', 'gd', 'sy', 'bar']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['natar', 'gus', 'dur', 'gd', 'tidur', 'bangun', 'natar', 'ttg', 'konsep', 'demokrasi', 'gd', 'sy', 'bar']</t>
+          <t>['orang', 'mendirikan', 'front', 'pejuang', 'islam', 'sh', 'melanggar', 'hukum', 'mengganggu', 'kete']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['orang', 'diri', 'front', 'juang', 'islam', 'sh', 'langgar', 'hukum', 'ganggu', 'kete']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18018</v>
+        <v>30322</v>
       </c>
       <c r="C76" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>memahami keadilan itu sulit saat mas fahri hamzah menang  sd di ma dlm gugatan pemecatan kpd pks dia bilang</t>
+          <t xml:space="preserve">kita tunggu proposal dari masyarakat bgmn mengambil hgu yg diperoleh scr sah pasalnya yg sdh diperoleh scr sah </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['memahami', 'keadilan', 'itu', 'sulit', 'saat', 'mas', 'fahri', 'hamzah', 'menang', 'sd', 'di', 'ma', 'dlm', 'gugatan', 'pemecatan', 'kpd', 'pks', 'dia', 'bilang']</t>
+          <t>['kita', 'tunggu', 'proposal', 'dari', 'masyarakat', 'bgmn', 'mengambil', 'hgu', 'yg', 'diperoleh', 'scr', 'sah', 'pasalnya', 'yg', 'sdh', 'diperoleh', 'scr', 'sah']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kita', 'tunggu', 'proposal', 'dari', 'masyarakat', 'bagaimana', 'mengambil', 'hgu', 'yang', 'diperoleh', 'secara', 'sah', 'pasalnya', 'yang', 'sudah', 'diperoleh', 'secara', 'sah']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['memahami', 'keadilan', 'sulit', 'mas', 'fahri', 'hamzah', 'menang', 'sd', 'ma', 'dlm', 'gugatan', 'pemecatan', 'kpd', 'pks']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['paham', 'adil', 'sulit', 'mas', 'fahri', 'hamzah', 'menang', 'sd', 'ma', 'dlm', 'gugat', 'pecat', 'kpd', 'pks']</t>
+          <t>['tunggu', 'proposal', 'masyarakat', 'mengambil', 'hgu', 'diperoleh', 'sah', 'pasalnya', 'diperoleh', 'sah']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['tunggu', 'proposal', 'masyarakat', 'ambil', 'hgu', 'oleh', 'sah', 'pasal', 'oleh', 'sah']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18019</v>
+        <v>30323</v>
       </c>
       <c r="C77" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>jenderal polisi kita gelandang ke pengadilan jaksa kita cokok jokcan kita tangkap maria pauline kita ambil</t>
+          <t>memang bgt bc beritanya bkn hny judulnya sy mengatakan bhw mslh hukumnya hrs selesaikan dulu apakah tanah milik</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['jenderal', 'polisi', 'kita', 'gelandang', 'ke', 'pengadilan', 'jaksa', 'kita', 'cokok', 'jokcan', 'kita', 'tangkap', 'maria', 'pauline', 'kita', 'ambil']</t>
+          <t>['memang', 'bgt', 'bc', 'beritanya', 'bkn', 'hny', 'judulnya', 'sy', 'mengatakan', 'bhw', 'mslh', 'hukumnya', 'hrs', 'selesaikan', 'dulu', 'apakah', 'tanah', 'milik']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['memang', 'banget', 'baca', 'beritanya', 'bukan', 'hanya', 'judulnya', 'saya', 'mengatakan', 'bahwa', 'masalah', 'hukumnya', 'harus', 'selesaikan', 'dulu', 'apakah', 'tanah', 'milik']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['jenderal', 'polisi', 'gelandang', 'pengadilan', 'jaksa', 'cokok', 'jokcan', 'tangkap', 'maria', 'pauline', 'ambil']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['jenderal', 'polisi', 'gelandang', 'adil', 'jaksa', 'cokok', 'jokcan', 'tangkap', 'maria', 'pauline', 'ambil']</t>
+          <t>['banget', 'baca', 'beritanya', 'judulnya', 'hukumnya', 'selesaikan', 'tanah', 'milik']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['banget', 'baca', 'berita', 'judul', 'hukum', 'selesai', 'tanah', 'milik']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18020</v>
+        <v>30324</v>
       </c>
       <c r="C78" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>tdk apa dalil itu berlaku bg semua kan uas memposting crmh sy bhw negara akan hancur kalau tidak adil itu be</t>
+          <t>usul anda itu memang cara yg paling realistis masalahnya bs langsung selesai dgn mengatakan ya sudah itu kan du</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['tdk', 'apa', 'dalil', 'itu', 'berlaku', 'bg', 'semua', 'kan', 'uas', 'memposting', 'crmh', 'sy', 'bhw', 'negara', 'akan', 'hancur', 'kalau', 'tidak', 'adil', 'itu', 'be']</t>
+          <t>['usul', 'anda', 'itu', 'memang', 'cara', 'yg', 'paling', 'realistis', 'masalahnya', 'bs', 'langsung', 'selesai', 'dgn', 'mengatakan', 'ya', 'sudah', 'itu', 'kan', 'du']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['usul', 'anda', 'itu', 'memang', 'cara', 'yang', 'paling', 'realistis', 'masalahnya', 'bisa', 'langsung', 'selesai', 'dengan', 'mengatakan', 'ya', 'sudah', 'itu', 'kan', 'du']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['dalil', 'berlaku', 'bg', 'uas', 'memposting', 'crmh', 'sy', 'bhw', 'negara', 'hancur', 'adil', 'be']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['dalil', 'laku', 'bg', 'uas', 'memposting', 'crmh', 'sy', 'bhw', 'negara', 'hancur', 'adil', 'be']</t>
+          <t>['usul', 'realistis', 'langsung', 'selesai', 'du']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['usul', 'realistis', 'langsung', 'selesai', 'du']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18021</v>
+        <v>30325</v>
       </c>
       <c r="C79" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>bagus itu berlaku bg uas jg yg bnyk bergabdeng dgn berbagai orng sama dgn dalil sy bhw jika berlaku tdk adil nega</t>
+          <t>rt justeru ini kita sedang ambil langkah bkn curhat tapi menginformasikan betapa rumitnya kita trs berusaha utk</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['bagus', 'itu', 'berlaku', 'bg', 'uas', 'jg', 'yg', 'bnyk', 'bergabdeng', 'dgn', 'berbagai', 'orng', 'sama', 'dgn', 'dalil', 'sy', 'bhw', 'jika', 'berlaku', 'tdk', 'adil', 'nega']</t>
+          <t>['rt', 'justeru', 'ini', 'kita', 'sedang', 'ambil', 'langkah', 'bkn', 'curhat', 'tapi', 'menginformasikan', 'betapa', 'rumitnya', 'kita', 'trs', 'berusaha', 'utk']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'justru', 'ini', 'kita', 'sedang', 'ambil', 'langkah', 'bukan', 'curhat', 'tapi', 'menginformasikan', 'betapa', 'rumitnya', 'kita', 'terus', 'berusaha', 'untuk']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['bagus', 'berlaku', 'bg', 'uas', 'jg', 'bnyk', 'bergabdeng', 'orng', 'dalil', 'sy', 'bhw', 'berlaku', 'adil', 'nega']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['bagus', 'laku', 'bg', 'uas', 'jg', 'bnyk', 'bergabdeng', 'orng', 'dalil', 'sy', 'bhw', 'laku', 'adil', 'nega']</t>
+          <t>['ambil', 'langkah', 'curhat', 'menginformasikan', 'betapa', 'rumitnya', 'berusaha']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ambil', 'langkah', 'curhat', 'informasi', 'betapa', 'rumit', 'usaha']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18022</v>
+        <v>30326</v>
       </c>
       <c r="C80" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tdk sedih ataupun senang itu urusan aparat cuma catatan saya semuanya orng pasuruan tapi kok mengancam saya kala</t>
+          <t>justeru ini kita sedang ambil langkah bkn curhat tapi menginformasikan betapa rumitnya kita trs berusa</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['tdk', 'sedih', 'ataupun', 'senang', 'itu', 'urusan', 'aparat', 'cuma', 'catatan', 'saya', 'semuanya', 'orng', 'pasuruan', 'tapi', 'kok', 'mengancam', 'saya', 'kala']</t>
+          <t>['justeru', 'ini', 'kita', 'sedang', 'ambil', 'langkah', 'bkn', 'curhat', 'tapi', 'menginformasikan', 'betapa', 'rumitnya', 'kita', 'trs', 'berusa']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['justru', 'ini', 'kita', 'sedang', 'ambil', 'langkah', 'bukan', 'curhat', 'tapi', 'menginformasikan', 'betapa', 'rumitnya', 'kita', 'terus', 'berusa']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['sedih', 'senang', 'urusan', 'aparat', 'catatan', 'orng', 'pasuruan', 'mengancam']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['sedih', 'senang', 'urus', 'aparat', 'catat', 'orng', 'pasuruan', 'ancam']</t>
+          <t>['ambil', 'langkah', 'curhat', 'menginformasikan', 'betapa', 'rumitnya', 'berusa']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ambil', 'langkah', 'curhat', 'informasi', 'betapa', 'rumit', 'rusa']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18023</v>
+        <v>30327</v>
       </c>
       <c r="C81" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>dua pekan lalu sy diinterview oleh satu televisi ttg pernyataan pak jk bhw fenomena mrs disebabkan terjadi kekosong</t>
+          <t>sy dpt kiriman daftar group penguasa tanah hgu yg setiap group menguasai smpai ratusan ribu hektar ini gila pengu</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['dua', 'pekan', 'lalu', 'sy', 'diinterview', 'oleh', 'satu', 'televisi', 'ttg', 'pernyataan', 'pak', 'jk', 'bhw', 'fenomena', 'mrs', 'disebabkan', 'terjadi', 'kekosong']</t>
+          <t>['sy', 'dpt', 'kiriman', 'daftar', 'group', 'penguasa', 'tanah', 'hgu', 'yg', 'setiap', 'group', 'menguasai', 'smpai', 'ratusan', 'ribu', 'hektar', 'ini', 'gila', 'pengu']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['saya', 'dapat', 'kiriman', 'daftar', 'grup', 'penguasa', 'tanah', 'hgu', 'yang', 'setiap', 'grup', 'menguasai', 'sampai', 'ratusan', 'ribu', 'hektar', 'ini', 'gila', 'pengu']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['pekan', 'sy', 'diinterview', 'televisi', 'ttg', 'pernyataan', 'jk', 'bhw', 'fenomena', 'mrs', 'disebabkan', 'kekosong']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['pekan', 'sy', 'diinterview', 'televisi', 'ttg', 'nyata', 'jk', 'bhw', 'fenomena', 'mrs', 'sebab', 'kosong']</t>
+          <t>['kiriman', 'daftar', 'grup', 'penguasa', 'tanah', 'hgu', 'grup', 'menguasai', 'ratusan', 'ribu', 'hektar', 'gila', 'pengu']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kirim', 'daftar', 'grup', 'kuasa', 'tanah', 'hgu', 'grup', 'kuasa', 'ratus', 'ribu', 'hektar', 'gila', 'pengu']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18024</v>
+        <v>30328</v>
       </c>
       <c r="C82" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ketika thn lalu trjadi aksi besar amp melalui ilc tv one sy bilang umat yg ikut membanjiri demo itu</t>
+          <t>jika kami sedang di yogya yunior sy dari ugm eddy hiariej dan zaenal arifin uceng mochtar selalu ngajak ngob</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['ketika', 'thn', 'lalu', 'trjadi', 'aksi', 'besar', 'amp', 'melalui', 'ilc', 'tv', 'one', 'sy', 'bilang', 'umat', 'yg', 'ikut', 'membanjiri', 'demo', 'itu']</t>
+          <t>['jika', 'kami', 'sedang', 'di', 'yogya', 'yunior', 'sy', 'dari', 'ugm', 'eddy', 'hiariej', 'dan', 'zaenal', 'arifin', 'uceng', 'mochtar', 'selalu', 'ngajak', 'ngob']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['jika', 'kami', 'sedang', 'di', 'yogyakarta', 'yunior', 'saya', 'dari', 'ugm', 'eddy', 'hiariej', 'dan', 'zaenal', 'arifin', 'uceng', 'mochtar', 'selalu', 'mengajak', 'ngob']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['thn', 'trjadi', 'aksi', 'ilc', 'tv', 'one', 'sy', 'umat', 'membanjiri', 'demo']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['thn', 'trjadi', 'aksi', 'ilc', 'tv', 'one', 'sy', 'umat', 'banjir', 'demo']</t>
+          <t>['yogyakarta', 'yunior', 'ugm', 'eddy', 'hiariej', 'zaenal', 'arifin', 'uceng', 'mochtar', 'mengajak', 'ngob']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['yogyakarta', 'yunior', 'ugm', 'eddy', 'hiariej', 'zaenal', 'arifin', 'uceng', 'mochtar', 'ajak', 'ngob']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18025</v>
+        <v>30329</v>
       </c>
       <c r="C83" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>berita salah narasi sy setuju dgn jk dlm konteks spt trjadi kekosongan pemimpin islam yg brperan melakukan nahi mu</t>
+          <t>aljannatu tahta aqdaamil ummahaat surga itu di telapak kaki ibu sepak terjang seorang ibu akan menentukan masa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['berita', 'salah', 'narasi', 'sy', 'setuju', 'dgn', 'jk', 'dlm', 'konteks', 'spt', 'trjadi', 'kekosongan', 'pemimpin', 'islam', 'yg', 'brperan', 'melakukan', 'nahi', 'mu']</t>
+          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'itu', 'di', 'telapak', 'kaki', 'ibu', 'sepak', 'terjang', 'seorang', 'ibu', 'akan', 'menentukan', 'masa']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'itu', 'di', 'telapak', 'kaki', 'ibu', 'sepak', 'terjang', 'seorang', 'ibu', 'akan', 'menentukan', 'masa']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['berita', 'salah', 'narasi', 'sy', 'setuju', 'jk', 'dlm', 'konteks', 'spt', 'trjadi', 'kekosongan', 'pemimpin', 'islam', 'brperan', 'nahi', 'mu']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['berita', 'salah', 'narasi', 'sy', 'tuju', 'jk', 'dlm', 'konteks', 'spt', 'trjadi', 'kosong', 'pimpin', 'islam', 'brperan', 'nahi', 'mu']</t>
+          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'telapak', 'kaki', 'sepak', 'terjang', 'menentukan']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['aljannatu', 'tahta', 'aqdaamil', 'ummahaat', 'surga', 'telapak', 'kaki', 'sepak', 'terjang', 'tentu']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>18026</v>
+        <v>30330</v>
       </c>
       <c r="C84" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>tp apa jawabnya hr pertama dia berpidato lantang mau rekonsiliasi dgn syarat pemerintah membebaskan terpidana te</t>
+          <t>kak dhaifah ibu dari ponakanku sdh wafat tgl akhir pekan kemarin thn sesuai dgn doanya ingin menin</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['tp', 'apa', 'jawabnya', 'hr', 'pertama', 'dia', 'berpidato', 'lantang', 'mau', 'rekonsiliasi', 'dgn', 'syarat', 'pemerintah', 'membebaskan', 'terpidana', 'te']</t>
+          <t>['kak', 'dhaifah', 'ibu', 'dari', 'ponakanku', 'sdh', 'wafat', 'tgl', 'akhir', 'pekan', 'kemarin', 'thn', 'sesuai', 'dgn', 'doanya', 'ingin', 'menin']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kak', 'dhaifah', 'ibu', 'dari', 'ponakanku', 'sudah', 'wafat', 'tanggal', 'akhir', 'pekan', 'kemarin', 'tahun', 'sesuai', 'dengan', 'doanya', 'ingin', 'menin']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['tp', 'hr', 'berpidato', 'lantang', 'rekonsiliasi', 'syarat', 'pemerintah', 'membebaskan', 'terpidana', 'te']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['tp', 'hr', 'pidato', 'lantang', 'rekonsiliasi', 'syarat', 'perintah', 'bebas', 'pidana', 'te']</t>
+          <t>['kak', 'dhaifah', 'ponakanku', 'wafat', 'tanggal', 'pekan', 'kemarin', 'sesuai', 'doanya', 'menin']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kak', 'dhaifah', 'ponakan', 'wafat', 'tanggal', 'pekan', 'kemarin', 'sesuai', 'doa', 'tin']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>18027</v>
+        <v>30331</v>
       </c>
       <c r="C85" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">penjelasan sebenarnya mlm sblm mrs mendarat tgl jam sy mengundang tim hukum mrs sugito dan ari </t>
+          <t>dua ibu di dekatku ibuku siti khadijah kanan lulus sd sj tidak bisanya hanya bc quran dan salat kakakku dhaif</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['penjelasan', 'sebenarnya', 'mlm', 'sblm', 'mrs', 'mendarat', 'tgl', 'jam', 'sy', 'mengundang', 'tim', 'hukum', 'mrs', 'sugito', 'dan', 'ari']</t>
+          <t>['dua', 'ibu', 'di', 'dekatku', 'ibuku', 'siti', 'khadijah', 'kanan', 'lulus', 'sd', 'sj', 'tidak', 'bisanya', 'hanya', 'bc', 'quran', 'dan', 'salat', 'kakakku', 'dhaif']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['dua', 'ibu', 'di', 'dekatku', 'ibuku', 'siti', 'khadijah', 'kanan', 'lulus', 'sekolah, dasar', 'saja', 'tidak', 'bisanya', 'hanya', 'baca', 'alquran', 'dan', 'salat', 'kakakku', 'dhaif']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['penjelasan', 'mlm', 'sblm', 'mrs', 'mendarat', 'tgl', 'jam', 'sy', 'mengundang', 'tim', 'hukum', 'mrs', 'sugito', 'ari']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['jelas', 'mlm', 'sblm', 'mrs', 'darat', 'tgl', 'jam', 'sy', 'undang', 'tim', 'hukum', 'mrs', 'sugito', 'ari']</t>
+          <t>['dekatku', 'ibuku', 'siti', 'khadijah', 'kanan', 'lulus', 'sekolah, dasar', 'bisanya', 'baca', 'alquran', 'salat', 'kakakku', 'dhaif']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['dekat', 'ibu', 'siti', 'khadijah', 'kanan', 'lulus', 'sekolah dasar', 'bisa', 'baca', 'alquran', 'salat', 'kakak', 'dhaif']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>18028</v>
+        <v>30332</v>
       </c>
       <c r="C86" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>selain dubes ri hadir bersama sy ke kantor etidal tiga wakil ormas islam yaitu nu robikhin emhas syarikat islam</t>
+          <t>setuju mas alaidid tak ada yg tahu wajah rasul krn tak ada tak boleh ada lukisan dirinya itu bagian da</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['selain', 'dubes', 'ri', 'hadir', 'bersama', 'sy', 'ke', 'kantor', 'etidal', 'tiga', 'wakil', 'ormas', 'islam', 'yaitu', 'nu', 'robikhin', 'emhas', 'syarikat', 'islam']</t>
+          <t>['setuju', 'mas', 'alaidid', 'tak', 'ada', 'yg', 'tahu', 'wajah', 'rasul', 'krn', 'tak', 'ada', 'tak', 'boleh', 'ada', 'lukisan', 'dirinya', 'itu', 'bagian', 'da']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['setuju', 'mas', 'alaidid', 'tak', 'ada', 'yang', 'tahu', 'wajah', 'rasul', 'karena', 'tak', 'ada', 'tak', 'boleh', 'ada', 'lukisan', 'dirinya', 'itu', 'bagian', 'dan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['dubes', 'ri', 'hadir', 'sy', 'kantor', 'etidal', 'wakil', 'ormas', 'islam', 'nu', 'robikhin', 'emhas', 'syarikat', 'islam']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['dubes', 'ri', 'hadir', 'sy', 'kantor', 'etidal', 'wakil', 'ormas', 'islam', 'nu', 'robikhin', 'emhas', 'syarikat', 'islam']</t>
+          <t>['setuju', 'mas', 'alaidid', 'wajah', 'rasul', 'lukisan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['tuju', 'mas', 'alaidid', 'wajah', 'rasul', 'lukis']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>18029</v>
+        <v>30333</v>
       </c>
       <c r="C87" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>senin saya bertemu dgn pimpinan etidal mansour alshammari di ryadh arab saudi etidal adl lembaga yg didi</t>
+          <t>ini lagi pengumuman bhw mnrt menko polhukam kepulangan hrs adalah hak yang harus dilindungi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['senin', 'saya', 'bertemu', 'dgn', 'pimpinan', 'etidal', 'mansour', 'alshammari', 'di', 'ryadh', 'arab', 'saudi', 'etidal', 'adl', 'lembaga', 'yg', 'didi']</t>
+          <t>['ini', 'lagi', 'pengumuman', 'bhw', 'mnrt', 'menko', 'polhukam', 'kepulangan', 'hrs', 'adalah', 'hak', 'yang', 'harus', 'dilindungi']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['ini', 'lagi', 'pengumuman', 'bahwa', 'menurut', 'menteri, perekonomian', 'politik, hukum, dan, keamanan', 'kepulangan', 'harus', 'adalah', 'hak', 'yang', 'harus', 'dilindungi']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['senin', 'bertemu', 'pimpinan', 'etidal', 'mansour', 'alshammari', 'ryadh', 'arab', 'saudi', 'etidal', 'adl', 'lembaga', 'didi']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['senin', 'temu', 'pimpin', 'etidal', 'mansour', 'alshammari', 'ryadh', 'arab', 'saudi', 'etidal', 'adl', 'lembaga', 'didi']</t>
+          <t>['pengumuman', 'menteri, perekonomian', 'politik, hukum, dan, keamanan', 'kepulangan', 'hak', 'dilindungi']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['umum', 'menteri ekonomi', 'politik hukum dan aman', 'pulang', 'hak', 'lindung']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>18030</v>
+        <v>30334</v>
       </c>
       <c r="C88" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>penulis berita dan komentatornya ngawur semua yg bilang bgt itu nurul  dari kpk jusreru sy yg bilang perlu dihuk</t>
+          <t>kang rk ini pengumuman sy ttg kepulangan hrs clear ada syarat tertib dan ikut protokol kesehatan lewat</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['penulis', 'berita', 'dan', 'komentatornya', 'ngawur', 'semua', 'yg', 'bilang', 'bgt', 'itu', 'nurul', 'dari', 'kpk', 'jusreru', 'sy', 'yg', 'bilang', 'perlu', 'dihuk']</t>
+          <t>['kang', 'rk', 'ini', 'pengumuman', 'sy', 'ttg', 'kepulangan', 'hrs', 'clear', 'ada', 'syarat', 'tertib', 'dan', 'ikut', 'protokol', 'kesehatan', 'lewat']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['kang', 'rk', 'ini', 'pengumuman', 'saya', 'tentang', 'kepulangan', 'harus', 'clear', 'ada', 'syarat', 'tertib', 'dan', 'ikut', 'protokol', 'kesehatan', 'lewat']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['penulis', 'berita', 'komentatornya', 'ngawur', 'bgt', 'nurul', 'kpk', 'jusreru', 'sy', 'dihuk']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['tulis', 'berita', 'komentator', 'ngawur', 'bgt', 'nurul', 'kpk', 'jusreru', 'sy', 'dihuk']</t>
+          <t>['kang', 'rk', 'pengumuman', 'kepulangan', 'clear', 'syarat', 'tertib', 'protokol', 'kesehatan']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['kang', 'rk', 'umum', 'pulang', 'clear', 'syarat', 'tertib', 'protokol', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>18031</v>
+        <v>30335</v>
       </c>
       <c r="C89" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>mas khairil sdh ditangkap orng ditahan di polda jatim td malam ditangkap ada daftarnya tak pandang bulu nan</t>
+          <t xml:space="preserve">diskresi pemerintah diberikan utk penjemputan pengamanan dan pengantaran dari bandara sampai ke petamburan itu </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['mas', 'khairil', 'sdh', 'ditangkap', 'orng', 'ditahan', 'di', 'polda', 'jatim', 'td', 'malam', 'ditangkap', 'ada', 'daftarnya', 'tak', 'pandang', 'bulu', 'nan']</t>
+          <t>['diskresi', 'pemerintah', 'diberikan', 'utk', 'penjemputan', 'pengamanan', 'dan', 'pengantaran', 'dari', 'bandara', 'sampai', 'ke', 'petamburan', 'itu']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['diskresi', 'pemerintah', 'diberikan', 'untuk', 'penjemputan', 'pengamanan', 'dan', 'pengantaran', 'dari', 'bandara', 'sampai', 'ke', 'petamburan', 'itu']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['mas', 'khairil', 'ditangkap', 'orng', 'ditahan', 'polda', 'jatim', 'td', 'malam', 'ditangkap', 'daftarnya', 'pandang', 'bulu']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['mas', 'khairil', 'tangkap', 'orng', 'tahan', 'polda', 'jatim', 'td', 'malam', 'tangkap', 'daftar', 'pandang', 'bulu']</t>
+          <t>['diskresi', 'pemerintah', 'penjemputan', 'pengamanan', 'pengantaran', 'bandara', 'petamburan']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['diskresi', 'perintah', 'jemput', 'aman', 'antar', 'bandara', 'tambur']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>18032</v>
+        <v>30336</v>
       </c>
       <c r="C90" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>pemerintah mendukung langkah kpk menangkap dan memburu para koruptor di institusi pemerintah termasuk di kkp ke</t>
+          <t>siap kang rk sy bertanggungjawab sy yg umumkan hrs diizinkan pulang ke indonesia krn dia punya hak hukum utk pul</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mendukung', 'langkah', 'kpk', 'menangkap', 'dan', 'memburu', 'para', 'koruptor', 'di', 'institusi', 'pemerintah', 'termasuk', 'di', 'kkp', 'ke']</t>
+          <t>['siap', 'kang', 'rk', 'sy', 'bertanggungjawab', 'sy', 'yg', 'umumkan', 'hrs', 'diizinkan', 'pulang', 'ke', 'indonesia', 'krn', 'dia', 'punya', 'hak', 'hukum', 'utk', 'pul']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['siap', 'kang', 'rk', 'saya', 'bertanggung, jawab', 'saya', 'yang', 'umumkan', 'harus', 'diizinkan', 'pulang', 'ke', 'indonesia', 'karena', 'dia', 'punya', 'hak', 'hukum', 'untuk', 'pul']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mendukung', 'langkah', 'kpk', 'menangkap', 'memburu', 'koruptor', 'institusi', 'pemerintah', 'kkp']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['perintah', 'dukung', 'langkah', 'kpk', 'tangkap', 'buru', 'koruptor', 'institusi', 'perintah', 'kkp']</t>
+          <t>['kang', 'rk', 'bertanggung, jawab', 'umumkan', 'diizinkan', 'pulang', 'indonesia', 'hak', 'hukum', 'pul']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['kang', 'rk', 'tanggung jawab', 'umum', 'izin', 'pulang', 'indonesia', 'hak', 'hukum', 'pul']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>18033</v>
+        <v>30337</v>
       </c>
       <c r="C91" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>betul</t>
+          <t>salawat burdah adl bait syair dlm bhs arab yg ditulis oleh imam albushiry ditulis ketika sakit lu</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['betul']</t>
+          <t>['salawat', 'burdah', 'adl', 'bait', 'syair', 'dlm', 'bhs', 'arab', 'yg', 'ditulis', 'oleh', 'imam', 'albushiry', 'ditulis', 'ketika', 'sakit', 'lu']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['salawat', 'burdah', 'adalah', 'bait', 'syair', 'dalam', 'bahas', 'arab', 'yang', 'ditulis', 'oleh', 'imam', 'albushiry', 'ditulis', 'ketika', 'sakit', 'kamu']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['salawat', 'burdah', 'bait', 'syair', 'bahas', 'arab', 'ditulis', 'imam', 'albushiry', 'ditulis', 'sakit']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['salawat', 'burdah', 'bait', 'syair', 'bahas', 'arab', 'tulis', 'imam', 'albushiry', 'tulis', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>18034</v>
+        <v>30338</v>
       </c>
       <c r="C92" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>habib luthfi yahya saya sering mengunjunginya dlm susana santai selain ilmunya yg luad dan rawadhu beliau jg bis</t>
+          <t>saat penataran  gus dur gd tidur tiba dibangunkan oleh penatar dan ditanya ttg konsep demokrasi gd sy bar</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['habib', 'luthfi', 'yahya', 'saya', 'sering', 'mengunjunginya', 'dlm', 'susana', 'santai', 'selain', 'ilmunya', 'yg', 'luad', 'dan', 'rawadhu', 'beliau', 'jg', 'bis']</t>
+          <t>['saat', 'penataran', 'gus', 'dur', 'gd', 'tidur', 'tiba', 'dibangunkan', 'oleh', 'penatar', 'dan', 'ditanya', 'ttg', 'konsep', 'demokrasi', 'gd', 'sy', 'bar']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['saat', 'penataran', 'gus', 'dur', 'gede', 'tidur', 'tiba', 'dibangunkan', 'oleh', 'penatar', 'dan', 'ditanya', 'tentang', 'konsep', 'demokrasi', 'gede', 'saya', 'bar']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['habib', 'luthfi', 'yahya', 'mengunjunginya', 'dlm', 'susana', 'santai', 'ilmunya', 'luad', 'rawadhu', 'beliau', 'jg', 'bis']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['habib', 'luthfi', 'yahya', 'unjung', 'dlm', 'susana', 'santai', 'ilmu', 'luad', 'rawadhu', 'beliau', 'jg', 'bis']</t>
+          <t>['penataran', 'gus', 'dur', 'gede', 'tidur', 'dibangunkan', 'penatar', 'konsep', 'demokrasi', 'gede', 'bar']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['natar', 'gus', 'dur', 'gede', 'tidur', 'bangun', 'natar', 'konsep', 'demokrasi', 'gede', 'bar']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18035</v>
+        <v>30339</v>
       </c>
       <c r="C93" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">sy selalu berusaha menghindar utk menindak orang yg menyerang pribadi sy krn khawatir egois dan sewenang krn sy </t>
+          <t>memahami keadilan itu sulit saat mas fahri hamzah menang  sd di ma dlm gugatan pemecatan kpd pks dia bilang</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['sy', 'selalu', 'berusaha', 'menghindar', 'utk', 'menindak', 'orang', 'yg', 'menyerang', 'pribadi', 'sy', 'krn', 'khawatir', 'egois', 'dan', 'sewenang', 'krn', 'sy']</t>
+          <t>['memahami', 'keadilan', 'itu', 'sulit', 'saat', 'mas', 'fahri', 'hamzah', 'menang', 'sd', 'di', 'ma', 'dlm', 'gugatan', 'pemecatan', 'kpd', 'pks', 'dia', 'bilang']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['memahami', 'keadilan', 'itu', 'sulit', 'saat', 'mas', 'fahri', 'hamzah', 'menang', 'sekolah, dasar', 'di', 'sama', 'dalam', 'gugatan', 'pemecatan', 'kepada', 'partai, keadilan, sejahtera', 'dia', 'bilang']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['sy', 'berusaha', 'menghindar', 'menindak', 'orang', 'menyerang', 'pribadi', 'sy', 'khawatir', 'egois', 'sewenang', 'sy']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['sy', 'usaha', 'hindar', 'tindak', 'orang', 'serang', 'pribadi', 'sy', 'khawatir', 'egois', 'wenang', 'sy']</t>
+          <t>['memahami', 'keadilan', 'sulit', 'mas', 'fahri', 'hamzah', 'menang', 'sekolah, dasar', 'gugatan', 'pemecatan', 'partai, keadilan, sejahtera']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['paham', 'adil', 'sulit', 'mas', 'fahri', 'hamzah', 'menang', 'sekolah dasar', 'gugat', 'pecat', 'partai adil sejahtera']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18036</v>
+        <v>30340</v>
       </c>
       <c r="C94" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>kutuk pembunuhan di sigi mahfud md pemerintah akan tindak tegas</t>
+          <t>jenderal polisi kita gelandang ke pengadilan jaksa kita cokok jokcan kita tangkap maria pauline kita ambil</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['kutuk', 'pembunuhan', 'di', 'sigi', 'mahfud', 'md', 'pemerintah', 'akan', 'tindak', 'tegas']</t>
+          <t>['jenderal', 'polisi', 'kita', 'gelandang', 'ke', 'pengadilan', 'jaksa', 'kita', 'cokok', 'jokcan', 'kita', 'tangkap', 'maria', 'pauline', 'kita', 'ambil']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['jenderal', 'polisi', 'kita', 'gelandang', 'ke', 'pengadilan', 'jaksa', 'kita', 'cokok', 'jokcan', 'kita', 'tangkap', 'maria', 'pauline', 'kita', 'ambil']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['kutuk', 'pembunuhan', 'sigi', 'mahfud', 'md', 'pemerintah', 'tindak']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['kutuk', 'bunuh', 'sigi', 'mahfud', 'md', 'perintah', 'tindak']</t>
+          <t>['jenderal', 'polisi', 'gelandang', 'pengadilan', 'jaksa', 'cokok', 'jokcan', 'tangkap', 'maria', 'pauline', 'ambil']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['jenderal', 'polisi', 'gelandang', 'adil', 'jaksa', 'cokok', 'jokcan', 'tangkap', 'maria', 'pauline', 'ambil']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18037</v>
+        <v>30341</v>
       </c>
       <c r="C95" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">hormat pimpinan puncak kedua ormas islam terbesar itu selain menjaga dirinya juga menjaga orang lain dari bahaya </t>
+          <t>tdk apa dalil itu berlaku bg semua kan uas memposting crmh sy bhw negara akan hancur kalau tidak adil itu be</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['hormat', 'pimpinan', 'puncak', 'kedua', 'ormas', 'islam', 'terbesar', 'itu', 'selain', 'menjaga', 'dirinya', 'juga', 'menjaga', 'orang', 'lain', 'dari', 'bahaya']</t>
+          <t>['tdk', 'apa', 'dalil', 'itu', 'berlaku', 'bg', 'semua', 'kan', 'uas', 'memposting', 'crmh', 'sy', 'bhw', 'negara', 'akan', 'hancur', 'kalau', 'tidak', 'adil', 'itu', 'be']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tidak', 'apa', 'dalil', 'itu', 'berlaku', 'bagi', 'semua', 'kan', 'ujian, akhir, semester', 'memposting', 'crmh', 'saya', 'bahwa', 'negara', 'akan', 'hancur', 'kalau', 'tidak', 'adil', 'itu', 'be']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['hormat', 'pimpinan', 'puncak', 'ormas', 'islam', 'terbesar', 'menjaga', 'menjaga', 'orang', 'bahaya']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['hormat', 'pimpin', 'puncak', 'ormas', 'islam', 'besar', 'jaga', 'jaga', 'orang', 'bahaya']</t>
+          <t>['dalil', 'berlaku', 'ujian, akhir, semester', 'memposting', 'crmh', 'negara', 'hancur', 'adil', 'be']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['dalil', 'laku', 'uji akhir semester', 'memposting', 'crmh', 'negara', 'hancur', 'adil', 'be']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>18038</v>
+        <v>30342</v>
       </c>
       <c r="C96" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>kamis sore sy kontak ketua pp muhammdiyah pak haidar nashir sy ingin silaturrahim beliau minta tdk dit</t>
+          <t>bagus itu berlaku bg uas jg yg bnyk bergabdeng dgn berbagai orng sama dgn dalil sy bhw jika berlaku tdk adil nega</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['kamis', 'sore', 'sy', 'kontak', 'ketua', 'pp', 'muhammdiyah', 'pak', 'haidar', 'nashir', 'sy', 'ingin', 'silaturrahim', 'beliau', 'minta', 'tdk', 'dit']</t>
+          <t>['bagus', 'itu', 'berlaku', 'bg', 'uas', 'jg', 'yg', 'bnyk', 'bergabdeng', 'dgn', 'berbagai', 'orng', 'sama', 'dgn', 'dalil', 'sy', 'bhw', 'jika', 'berlaku', 'tdk', 'adil', 'nega']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['bagus', 'itu', 'berlaku', 'bagi', 'ujian, akhir, semester', 'juga', 'yang', 'banyak', 'bergabdeng', 'dengan', 'berbagai', 'orang', 'sama', 'dengan', 'dalil', 'saya', 'bahwa', 'jika', 'berlaku', 'tidak', 'adil', 'tega']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['kamis', 'sore', 'sy', 'kontak', 'ketua', 'pp', 'muhammdiyah', 'haidar', 'nashir', 'sy', 'silaturrahim', 'beliau', 'dit']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['kamis', 'sore', 'sy', 'kontak', 'ketua', 'pp', 'muhammdiyah', 'haidar', 'nashir', 'sy', 'silaturrahim', 'beliau', 'dit']</t>
+          <t>['bagus', 'berlaku', 'ujian, akhir, semester', 'bergabdeng', 'orang', 'dalil', 'berlaku', 'adil', 'tega']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bagus', 'laku', 'uji akhir semester', 'bergabdeng', 'orang', 'dalil', 'laku', 'adil', 'tega']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>18039</v>
+        <v>30343</v>
       </c>
       <c r="C97" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ketum pbnu dan ketua pp muhammadiyah kamis jam sy ngobrol dgn ketum pbnu kh aqil sieraj di kantor</t>
+          <t>tdk sedih ataupun senang itu urusan aparat cuma catatan saya semuanya orng pasuruan tapi kok mengancam saya kala</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['ketum', 'pbnu', 'dan', 'ketua', 'pp', 'muhammadiyah', 'kamis', 'jam', 'sy', 'ngobrol', 'dgn', 'ketum', 'pbnu', 'kh', 'aqil', 'sieraj', 'di', 'kantor']</t>
+          <t>['tdk', 'sedih', 'ataupun', 'senang', 'itu', 'urusan', 'aparat', 'cuma', 'catatan', 'saya', 'semuanya', 'orng', 'pasuruan', 'tapi', 'kok', 'mengancam', 'saya', 'kala']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['tidak', 'sedih', 'ataupun', 'senang', 'itu', 'urusan', 'aparat', 'cuma', 'catatan', 'saya', 'semuanya', 'orang', 'pasuruan', 'tapi', 'kok', 'mengancam', 'saya', 'kala']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['ketum', 'pbnu', 'ketua', 'pp', 'muhammadiyah', 'kamis', 'jam', 'sy', 'ngobrol', 'ketum', 'pbnu', 'kh', 'aqil', 'sieraj', 'kantor']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['tum', 'pbnu', 'ketua', 'pp', 'muhammadiyah', 'kamis', 'jam', 'sy', 'ngobrol', 'tum', 'pbnu', 'kh', 'aqil', 'sieraj', 'kantor']</t>
+          <t>['sedih', 'senang', 'urusan', 'aparat', 'catatan', 'orang', 'pasuruan', 'mengancam']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['sedih', 'senang', 'urus', 'aparat', 'catat', 'orang', 'pasuruan', 'ancam']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18040</v>
+        <v>30344</v>
       </c>
       <c r="C98" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>kami bcr dari hati ke hati dlm arti bkn sekedar basa basi di mulut bicara betul spt saudara ditampakkan dari ges</t>
+          <t>dua pekan lalu sy diinterview oleh satu televisi ttg pernyataan pak jk bhw fenomena mrs disebabkan terjadi kekosong</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['kami', 'bcr', 'dari', 'hati', 'ke', 'hati', 'dlm', 'arti', 'bkn', 'sekedar', 'basa', 'basi', 'di', 'mulut', 'bicara', 'betul', 'spt', 'saudara', 'ditampakkan', 'dari', 'ges']</t>
+          <t>['dua', 'pekan', 'lalu', 'sy', 'diinterview', 'oleh', 'satu', 'televisi', 'ttg', 'pernyataan', 'pak', 'jk', 'bhw', 'fenomena', 'mrs', 'disebabkan', 'terjadi', 'kekosong']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['dua', 'pekan', 'lalu', 'saya', 'diinterview', 'oleh', 'satu', 'televisi', 'tentang', 'pernyataan', 'pak', 'jika', 'bahwa', 'fenomena', 'mrs', 'disebabkan', 'terjadi', 'kekosong']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['bcr', 'hati', 'hati', 'dlm', 'arti', 'bkn', 'sekedar', 'basa', 'basi', 'mulut', 'bicara', 'spt', 'saudara', 'ditampakkan', 'ges']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['bcr', 'hati', 'hati', 'dlm', 'arti', 'bkn', 'dar', 'basa', 'basi', 'mulut', 'bicara', 'spt', 'saudara', 'tampak', 'ges']</t>
+          <t>['pekan', 'diinterview', 'televisi', 'pernyataan', 'fenomena', 'mrs', 'disebabkan', 'kekosong']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['pekan', 'diinterview', 'televisi', 'nyata', 'fenomena', 'mrs', 'sebab', 'kosong']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>18041</v>
+        <v>30345</v>
       </c>
       <c r="C99" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>pg ini allah mempertemukan sy dgn pak gatot nurmantyo di masjid kampus ugm kami duduk berjejer dan ngobrol ttg bny</t>
+          <t>ketika thn lalu trjadi aksi besar amp melalui ilc tv one sy bilang umat yg ikut membanjiri demo itu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['pg', 'ini', 'allah', 'mempertemukan', 'sy', 'dgn', 'pak', 'gatot', 'nurmantyo', 'di', 'masjid', 'kampus', 'ugm', 'kami', 'duduk', 'berjejer', 'dan', 'ngobrol', 'ttg', 'bny']</t>
+          <t>['ketika', 'thn', 'lalu', 'trjadi', 'aksi', 'besar', 'amp', 'melalui', 'ilc', 'tv', 'one', 'sy', 'bilang', 'umat', 'yg', 'ikut', 'membanjiri', 'demo', 'itu']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['ketika', 'tahun', 'lalu', 'terjadi', 'aksi', 'besar', 'amp', 'melalui', 'indonesia, lawyers, club', 'televisi', 'one', 'saya', 'bilang', 'umat', 'yang', 'ikut', 'membanjiri', 'demo', 'itu']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['pg', 'allah', 'mempertemukan', 'sy', 'gatot', 'nurmantyo', 'masjid', 'kampus', 'ugm', 'duduk', 'berjejer', 'ngobrol', 'ttg', 'bny']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['pg', 'allah', 'temu', 'sy', 'gatot', 'nurmantyo', 'masjid', 'kampus', 'ugm', 'duduk', 'jejer', 'ngobrol', 'ttg', 'bny']</t>
+          <t>['aksi', 'indonesia, lawyers, club', 'televisi', 'one', 'umat', 'membanjiri', 'demo']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['aksi', 'indonesia lawyers club', 'televisi', 'one', 'umat', 'banjir', 'demo']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>18042</v>
+        <v>30346</v>
       </c>
       <c r="C100" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>cuitan sy bhw ketua kpk pak firli bahuri bilang meski orng bilang kami tdk baik tp kami akan berbuat yg terbaik</t>
+          <t>berita salah narasi sy setuju dgn jk dlm konteks spt trjadi kekosongan pemimpin islam yg brperan melakukan nahi mu</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['cuitan', 'sy', 'bhw', 'ketua', 'kpk', 'pak', 'firli', 'bahuri', 'bilang', 'meski', 'orng', 'bilang', 'kami', 'tdk', 'baik', 'tp', 'kami', 'akan', 'berbuat', 'yg', 'terbaik']</t>
+          <t>['berita', 'salah', 'narasi', 'sy', 'setuju', 'dgn', 'jk', 'dlm', 'konteks', 'spt', 'trjadi', 'kekosongan', 'pemimpin', 'islam', 'yg', 'brperan', 'melakukan', 'nahi', 'mu']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['berita', 'salah', 'narasi', 'saya', 'setuju', 'dengan', 'jika', 'dalam', 'konteks', 'surat, pemberitahuan, tahunan', 'terjadi', 'kekosongan', 'pemimpin', 'islam', 'yang', 'brperan', 'melakukan', 'nahi', 'mu']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['cuitan', 'sy', 'bhw', 'ketua', 'kpk', 'firli', 'bahuri', 'orng', 'tp', 'berbuat', 'terbaik']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['cuit', 'sy', 'bhw', 'ketua', 'kpk', 'firli', 'bahuri', 'orng', 'tp', 'buat', 'baik']</t>
+          <t>['berita', 'salah', 'narasi', 'setuju', 'konteks', 'surat, pemberitahuan, tahunan', 'kekosongan', 'pemimpin', 'islam', 'brperan', 'nahi', 'mu']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['berita', 'salah', 'narasi', 'tuju', 'konteks', 'surat pemberitahuan tahun', 'kosong', 'pimpin', 'islam', 'brperan', 'nahi', 'mu']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18043</v>
+        <v>30347</v>
       </c>
       <c r="C101" t="n">
-        <v>221</v>
+        <v>353</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>sy selalu mengingatkan kpd temanteman di kpk ttg apa yg pernah disampaikan oleh ketua kpk firli bahuri kpd sy bi</t>
+          <t>tp apa jawabnya hr pertama dia berpidato lantang mau rekonsiliasi dgn syarat pemerintah membebaskan terpidana te</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['sy', 'selalu', 'mengingatkan', 'kpd', 'temanteman', 'di', 'kpk', 'ttg', 'apa', 'yg', 'pernah', 'disampaikan', 'oleh', 'ketua', 'kpk', 'firli', 'bahuri', 'kpd', 'sy', 'bi']</t>
+          <t>['tp', 'apa', 'jawabnya', 'hr', 'pertama', 'dia', 'berpidato', 'lantang', 'mau', 'rekonsiliasi', 'dgn', 'syarat', 'pemerintah', 'membebaskan', 'terpidana', 'te']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['tetapi', 'apa', 'jawabnya', 'hari', 'pertama', 'dia', 'berpidato', 'lantang', 'mau', 'rekonsiliasi', 'dengan', 'syarat', 'pemerintah', 'membebaskan', 'terpidana', 'te']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['sy', 'kpd', 'temanteman', 'kpk', 'ttg', 'ketua', 'kpk', 'firli', 'bahuri', 'kpd', 'sy', 'bi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['sy', 'kpd', 'temanteman', 'kpk', 'ttg', 'ketua', 'kpk', 'firli', 'bahuri', 'kpd', 'sy', 'bi']</t>
+          <t>['berpidato', 'lantang', 'rekonsiliasi', 'syarat', 'pemerintah', 'membebaskan', 'terpidana', 'te']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['pidato', 'lantang', 'rekonsiliasi', 'syarat', 'perintah', 'bebas', 'pidana', 'te']</t>
         </is>
       </c>
     </row>
